--- a/raw_data/20200818_saline/20200818_Sensor2_Test_3.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_3.xlsx
@@ -1,523 +1,939 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F9C8D8-2435-46FB-8147-F983A410CD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>2172.019060</v>
+        <v>2172.0190600000001</v>
       </c>
       <c r="B2" s="1">
-        <v>0.603339</v>
+        <v>0.60333899999999996</v>
       </c>
       <c r="C2" s="1">
-        <v>1244.070000</v>
+        <v>1244.07</v>
       </c>
       <c r="D2" s="1">
-        <v>-305.022000</v>
+        <v>-305.02199999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>2182.382467</v>
+        <v>2182.3824669999999</v>
       </c>
       <c r="G2" s="1">
-        <v>0.606217</v>
+        <v>0.60621700000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1269.700000</v>
+        <v>1269.7</v>
       </c>
       <c r="I2" s="1">
-        <v>-263.813000</v>
+        <v>-263.81299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>2192.847030</v>
+        <v>2192.8470299999999</v>
       </c>
       <c r="L2" s="1">
         <v>0.609124</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.220000</v>
+        <v>1305.22</v>
       </c>
       <c r="N2" s="1">
-        <v>-201.661000</v>
+        <v>-201.661</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>2203.340921</v>
@@ -526,5153 +942,5153 @@
         <v>0.612039</v>
       </c>
       <c r="R2" s="1">
-        <v>1317.120000</v>
+        <v>1317.12</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.172000</v>
+        <v>-184.172</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>2214.202812</v>
       </c>
       <c r="V2" s="1">
-        <v>0.615056</v>
+        <v>0.61505600000000005</v>
       </c>
       <c r="W2" s="1">
-        <v>1330.150000</v>
+        <v>1330.15</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.774000</v>
+        <v>-170.774</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>2224.349965</v>
+        <v>2224.3499649999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.617875</v>
+        <v>0.61787499999999995</v>
       </c>
       <c r="AB2" s="1">
-        <v>1347.360000</v>
+        <v>1347.36</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.957000</v>
+        <v>-168.95699999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>2234.671679</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.620742</v>
+        <v>0.62074200000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1360.210000</v>
+        <v>1360.21</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.882000</v>
+        <v>-178.88200000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>2244.820849</v>
+        <v>2244.8208490000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.623561</v>
+        <v>0.62356100000000003</v>
       </c>
       <c r="AL2" s="1">
-        <v>1380.660000</v>
+        <v>1380.66</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.326000</v>
+        <v>-209.32599999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>2255.038899</v>
+        <v>2255.0388990000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.626400</v>
+        <v>0.62639999999999996</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1402.090000</v>
+        <v>1402.09</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.484000</v>
+        <v>-253.48400000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>2265.648854</v>
       </c>
       <c r="AU2" s="1">
-        <v>0.629347</v>
+        <v>0.62934699999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1426.260000</v>
+        <v>1426.26</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.907000</v>
+        <v>-313.90699999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>2276.412503</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0.632337</v>
+        <v>0.63233700000000004</v>
       </c>
       <c r="BA2" s="1">
-        <v>1445.230000</v>
+        <v>1445.23</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.627000</v>
+        <v>-366.62700000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>2287.331443</v>
       </c>
       <c r="BE2" s="1">
-        <v>0.635370</v>
+        <v>0.63536999999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1528.560000</v>
+        <v>1528.56</v>
       </c>
       <c r="BG2" s="1">
-        <v>-618.616000</v>
+        <v>-618.61599999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>2298.387290</v>
+        <v>2298.3872900000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.638441</v>
+        <v>0.63844100000000004</v>
       </c>
       <c r="BK2" s="1">
-        <v>1679.850000</v>
+        <v>1679.85</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1073.220000</v>
+        <v>-1073.22</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>2309.762012</v>
+        <v>2309.7620120000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>0.641601</v>
+        <v>0.64160099999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1971.030000</v>
+        <v>1971.03</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1865.990000</v>
+        <v>-1865.99</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>2320.087263</v>
+        <v>2320.0872629999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>0.644469</v>
+        <v>0.64446899999999996</v>
       </c>
       <c r="BU2" s="1">
-        <v>2357.160000</v>
+        <v>2357.16</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2788.570000</v>
+        <v>-2788.57</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>2330.835536</v>
       </c>
       <c r="BY2" s="1">
-        <v>0.647454</v>
+        <v>0.64745399999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2842.210000</v>
+        <v>2842.21</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3796.260000</v>
+        <v>-3796.26</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>2341.849201</v>
       </c>
       <c r="CD2" s="1">
-        <v>0.650514</v>
+        <v>0.65051400000000004</v>
       </c>
       <c r="CE2" s="1">
-        <v>4290.740000</v>
+        <v>4290.74</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6245.140000</v>
+        <v>-6245.14</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>2172.362754</v>
+        <v>2172.3627540000002</v>
       </c>
       <c r="B3" s="1">
-        <v>0.603434</v>
+        <v>0.60343400000000003</v>
       </c>
       <c r="C3" s="1">
-        <v>1244.020000</v>
+        <v>1244.02</v>
       </c>
       <c r="D3" s="1">
-        <v>-305.115000</v>
+        <v>-305.11500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>2182.757411</v>
       </c>
       <c r="G3" s="1">
-        <v>0.606322</v>
+        <v>0.60632200000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.720000</v>
+        <v>1269.72</v>
       </c>
       <c r="I3" s="1">
-        <v>-263.706000</v>
+        <v>-263.70600000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>2193.211591</v>
+        <v>2193.2115910000002</v>
       </c>
       <c r="L3" s="1">
-        <v>0.609225</v>
+        <v>0.60922500000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>1305.180000</v>
+        <v>1305.18</v>
       </c>
       <c r="N3" s="1">
-        <v>-202.067000</v>
+        <v>-202.06700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>2204.028375</v>
+        <v>2204.0283749999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.612230</v>
+        <v>0.61223000000000005</v>
       </c>
       <c r="R3" s="1">
-        <v>1317.000000</v>
+        <v>1317</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.133000</v>
+        <v>-184.13300000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>2214.312393</v>
+        <v>2214.3123930000002</v>
       </c>
       <c r="V3" s="1">
-        <v>0.615087</v>
+        <v>0.61508700000000005</v>
       </c>
       <c r="W3" s="1">
-        <v>1330.180000</v>
+        <v>1330.18</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.879000</v>
+        <v>-170.87899999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>2224.775035</v>
+        <v>2224.7750350000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.617993</v>
+        <v>0.61799300000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1347.380000</v>
+        <v>1347.38</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.963000</v>
+        <v>-168.96299999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>2235.016398</v>
+        <v>2235.0163980000002</v>
       </c>
       <c r="AF3" s="1">
         <v>0.620838</v>
       </c>
       <c r="AG3" s="1">
-        <v>1360.250000</v>
+        <v>1360.25</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.873000</v>
+        <v>-178.87299999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>2245.171986</v>
+        <v>2245.1719859999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>0.623659</v>
+        <v>0.62365899999999996</v>
       </c>
       <c r="AL3" s="1">
-        <v>1380.670000</v>
+        <v>1380.67</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.332000</v>
+        <v>-209.33199999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>2255.429779</v>
+        <v>2255.4297790000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>0.626508</v>
+        <v>0.62650799999999995</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1402.100000</v>
+        <v>1402.1</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.488000</v>
+        <v>-253.488</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>2266.069462</v>
+        <v>2266.0694619999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.629464</v>
+        <v>0.62946400000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>1426.240000</v>
+        <v>1426.24</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.921000</v>
+        <v>-313.92099999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>2276.820743</v>
+        <v>2276.8207430000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0.632450</v>
+        <v>0.63244999999999996</v>
       </c>
       <c r="BA3" s="1">
-        <v>1445.230000</v>
+        <v>1445.23</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.640000</v>
+        <v>-366.64</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>2287.765433</v>
       </c>
       <c r="BE3" s="1">
-        <v>0.635490</v>
+        <v>0.63549</v>
       </c>
       <c r="BF3" s="1">
-        <v>1528.570000</v>
+        <v>1528.57</v>
       </c>
       <c r="BG3" s="1">
-        <v>-618.608000</v>
+        <v>-618.60799999999995</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>2298.765707</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0.638546</v>
+        <v>0.63854599999999995</v>
       </c>
       <c r="BK3" s="1">
-        <v>1679.930000</v>
+        <v>1679.93</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1073.420000</v>
+        <v>-1073.42</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>2310.202955</v>
+        <v>2310.2029550000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.641723</v>
+        <v>0.64172300000000004</v>
       </c>
       <c r="BP3" s="1">
-        <v>1970.890000</v>
+        <v>1970.89</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1866.240000</v>
+        <v>-1866.24</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>2320.583256</v>
+        <v>2320.5832559999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.644606</v>
+        <v>0.64460600000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2356.360000</v>
+        <v>2356.36</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2788.680000</v>
+        <v>-2788.68</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>2331.300320</v>
+        <v>2331.3003199999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>0.647583</v>
+        <v>0.64758300000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2841.680000</v>
+        <v>2841.68</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3796.240000</v>
+        <v>-3796.24</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>2342.414640</v>
+        <v>2342.41464</v>
       </c>
       <c r="CD3" s="1">
         <v>0.650671</v>
       </c>
       <c r="CE3" s="1">
-        <v>4288.670000</v>
+        <v>4288.67</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6249.030000</v>
+        <v>-6249.03</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>2172.707969</v>
       </c>
       <c r="B4" s="1">
-        <v>0.603530</v>
+        <v>0.60353000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-305.267000</v>
+        <v>-305.267</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>2183.412626</v>
+        <v>2183.4126259999998</v>
       </c>
       <c r="G4" s="1">
-        <v>0.606504</v>
+        <v>0.60650400000000004</v>
       </c>
       <c r="H4" s="1">
-        <v>1270.050000</v>
+        <v>1270.05</v>
       </c>
       <c r="I4" s="1">
-        <v>-263.977000</v>
+        <v>-263.97699999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>2193.871268</v>
+        <v>2193.8712679999999</v>
       </c>
       <c r="L4" s="1">
-        <v>0.609409</v>
+        <v>0.60940899999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.240000</v>
+        <v>1305.24</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.105000</v>
+        <v>-202.10499999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>2204.424151</v>
+        <v>2204.4241510000002</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.612340</v>
+        <v>0.61234</v>
       </c>
       <c r="R4" s="1">
-        <v>1316.970000</v>
+        <v>1316.97</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.097000</v>
+        <v>-184.09700000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>2214.659625</v>
+        <v>2214.6596249999998</v>
       </c>
       <c r="V4" s="1">
-        <v>0.615183</v>
+        <v>0.61518300000000004</v>
       </c>
       <c r="W4" s="1">
-        <v>1330.090000</v>
+        <v>1330.09</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.768000</v>
+        <v>-170.768</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>2225.127692</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.618091</v>
+        <v>0.61809099999999995</v>
       </c>
       <c r="AB4" s="1">
-        <v>1347.330000</v>
+        <v>1347.33</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.028000</v>
+        <v>-169.02799999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>2235.363101</v>
+        <v>2235.3631009999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>0.620934</v>
+        <v>0.62093399999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1360.200000</v>
+        <v>1360.2</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.906000</v>
+        <v>-178.90600000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>2245.520176</v>
       </c>
       <c r="AK4" s="1">
-        <v>0.623756</v>
+        <v>0.62375599999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>1380.610000</v>
+        <v>1380.61</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.320000</v>
+        <v>-209.32</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>2255.841427</v>
+        <v>2255.8414269999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>0.626623</v>
+        <v>0.62662300000000004</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1402.070000</v>
+        <v>1402.07</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.461000</v>
+        <v>-253.46100000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>2266.422580</v>
+        <v>2266.4225799999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>0.629562</v>
+        <v>0.62956199999999995</v>
       </c>
       <c r="AV4" s="1">
-        <v>1426.260000</v>
+        <v>1426.26</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.906000</v>
+        <v>-313.90600000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>2277.149560</v>
+        <v>2277.1495599999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0.632542</v>
+        <v>0.63254200000000005</v>
       </c>
       <c r="BA4" s="1">
-        <v>1445.200000</v>
+        <v>1445.2</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.618000</v>
+        <v>-366.61799999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>2288.127512</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.635591</v>
+        <v>0.63559100000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1528.580000</v>
+        <v>1528.58</v>
       </c>
       <c r="BG4" s="1">
-        <v>-618.665000</v>
+        <v>-618.66499999999996</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>2299.141177</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0.638650</v>
+        <v>0.63865000000000005</v>
       </c>
       <c r="BK4" s="1">
-        <v>1679.770000</v>
+        <v>1679.77</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1073.380000</v>
+        <v>-1073.3800000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>2310.598763</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.641833</v>
+        <v>0.64183299999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1970.710000</v>
+        <v>1970.71</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1866.290000</v>
+        <v>-1866.29</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>2321.014749</v>
+        <v>2321.0147489999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>0.644726</v>
+        <v>0.64472600000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>2355.750000</v>
+        <v>2355.75</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2789.070000</v>
+        <v>-2789.07</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>2331.747678</v>
+        <v>2331.7476780000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>0.647708</v>
+        <v>0.64770799999999995</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2841.150000</v>
+        <v>2841.15</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3797.150000</v>
+        <v>-3797.15</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>2342.935441</v>
+        <v>2342.9354410000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>0.650815</v>
+        <v>0.65081500000000003</v>
       </c>
       <c r="CE4" s="1">
-        <v>4275.810000</v>
+        <v>4275.8100000000004</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6240.910000</v>
+        <v>-6240.91</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>2173.365169</v>
+        <v>2173.3651690000002</v>
       </c>
       <c r="B5" s="1">
-        <v>0.603713</v>
+        <v>0.60371300000000006</v>
       </c>
       <c r="C5" s="1">
-        <v>1244.260000</v>
+        <v>1244.26</v>
       </c>
       <c r="D5" s="1">
-        <v>-305.066000</v>
+        <v>-305.06599999999997</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>2183.788626</v>
       </c>
       <c r="G5" s="1">
-        <v>0.606608</v>
+        <v>0.60660800000000004</v>
       </c>
       <c r="H5" s="1">
-        <v>1269.870000</v>
+        <v>1269.8699999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-263.535000</v>
+        <v>-263.53500000000003</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>2194.249716</v>
+        <v>2194.2497159999998</v>
       </c>
       <c r="L5" s="1">
         <v>0.609514</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.370000</v>
+        <v>1305.3699999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.139000</v>
+        <v>-202.13900000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>2204.769862</v>
+        <v>2204.7698620000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.612436</v>
+        <v>0.61243599999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1317.000000</v>
+        <v>1317</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.039000</v>
+        <v>-184.03899999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>2215.002329</v>
+        <v>2215.0023289999999</v>
       </c>
       <c r="V5" s="1">
-        <v>0.615278</v>
+        <v>0.61527799999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1330.030000</v>
+        <v>1330.03</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.879000</v>
+        <v>-170.87899999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>2225.474860</v>
+        <v>2225.4748599999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.618187</v>
+        <v>0.61818700000000004</v>
       </c>
       <c r="AB5" s="1">
-        <v>1347.110000</v>
+        <v>1347.11</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.972000</v>
+        <v>-168.97200000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>2235.788703</v>
+        <v>2235.7887030000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.621052</v>
+        <v>0.62105200000000005</v>
       </c>
       <c r="AG5" s="1">
-        <v>1360.180000</v>
+        <v>1360.18</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.926000</v>
+        <v>-178.92599999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>2245.971040</v>
+        <v>2245.9710399999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.623881</v>
+        <v>0.62388100000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1380.630000</v>
+        <v>1380.63</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.319000</v>
+        <v>-209.31899999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>2256.148450</v>
+        <v>2256.1484500000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.626708</v>
+        <v>0.62670800000000004</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1402.090000</v>
+        <v>1402.09</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.501000</v>
+        <v>-253.501</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>2266.782180</v>
+        <v>2266.7821800000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>0.629662</v>
+        <v>0.62966200000000005</v>
       </c>
       <c r="AV5" s="1">
-        <v>1426.240000</v>
+        <v>1426.24</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.911000</v>
+        <v>-313.911</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>2277.508696</v>
+        <v>2277.5086959999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.632641</v>
+        <v>0.63264100000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1445.200000</v>
+        <v>1445.2</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.633000</v>
+        <v>-366.63299999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>2288.487112</v>
+        <v>2288.4871119999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>0.635691</v>
+        <v>0.63569100000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1528.620000</v>
+        <v>1528.62</v>
       </c>
       <c r="BG5" s="1">
-        <v>-618.609000</v>
+        <v>-618.60900000000004</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>2299.894600</v>
+        <v>2299.8946000000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.638860</v>
+        <v>0.63885999999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1679.870000</v>
+        <v>1679.87</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1073.340000</v>
+        <v>-1073.3399999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>2311.022346</v>
+        <v>2311.0223460000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>0.641951</v>
+        <v>0.64195100000000005</v>
       </c>
       <c r="BP5" s="1">
-        <v>1970.690000</v>
+        <v>1970.69</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1866.370000</v>
+        <v>-1866.37</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>2321.430925</v>
+        <v>2321.4309250000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>0.644842</v>
+        <v>0.64484200000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>2355.190000</v>
+        <v>2355.19</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2788.530000</v>
+        <v>-2788.53</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>2332.178701</v>
+        <v>2332.1787009999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.647827</v>
+        <v>0.64782700000000004</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2841.070000</v>
+        <v>2841.07</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3796.660000</v>
+        <v>-3796.66</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>2343.456275</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.650960</v>
+        <v>0.65095999999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>4268.520000</v>
+        <v>4268.5200000000004</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6253.420000</v>
+        <v>-6253.42</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>2173.727247</v>
+        <v>2173.7272469999998</v>
       </c>
       <c r="B6" s="1">
-        <v>0.603813</v>
+        <v>0.60381300000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>1244.120000</v>
+        <v>1244.1199999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-305.431000</v>
+        <v>-305.43099999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>2184.140570</v>
+        <v>2184.14057</v>
       </c>
       <c r="G6" s="1">
-        <v>0.606706</v>
+        <v>0.60670599999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>1269.980000</v>
+        <v>1269.98</v>
       </c>
       <c r="I6" s="1">
-        <v>-263.534000</v>
+        <v>-263.53399999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>2194.596420</v>
+        <v>2194.5964199999999</v>
       </c>
       <c r="L6" s="1">
-        <v>0.609610</v>
+        <v>0.60960999999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.380000</v>
+        <v>1305.3800000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-202.174000</v>
+        <v>-202.17400000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>2205.118053</v>
+        <v>2205.1180530000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.612533</v>
+        <v>0.61253299999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1317.110000</v>
+        <v>1317.11</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.078000</v>
+        <v>-184.078</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>2215.423929</v>
       </c>
       <c r="V6" s="1">
-        <v>0.615396</v>
+        <v>0.61539600000000005</v>
       </c>
       <c r="W6" s="1">
-        <v>1330.020000</v>
+        <v>1330.02</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.796000</v>
+        <v>-170.79599999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>2225.895466</v>
+        <v>2225.8954659999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.618304</v>
+        <v>0.61830399999999996</v>
       </c>
       <c r="AB6" s="1">
-        <v>1347.260000</v>
+        <v>1347.26</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.916000</v>
+        <v>-168.916</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>2236.065965</v>
+        <v>2236.0659649999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.621129</v>
+        <v>0.62112900000000004</v>
       </c>
       <c r="AG6" s="1">
-        <v>1360.120000</v>
+        <v>1360.12</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.922000</v>
+        <v>-178.922</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>2246.241392</v>
+        <v>2246.2413919999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>0.623956</v>
+        <v>0.62395599999999996</v>
       </c>
       <c r="AL6" s="1">
-        <v>1380.640000</v>
+        <v>1380.64</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.307000</v>
+        <v>-209.30699999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>2256.507554</v>
+        <v>2256.5075539999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.626808</v>
+        <v>0.62680800000000003</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1402.080000</v>
+        <v>1402.08</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.486000</v>
+        <v>-253.48599999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>2267.147732</v>
+        <v>2267.1477319999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>0.629763</v>
+        <v>0.62976299999999996</v>
       </c>
       <c r="AV6" s="1">
-        <v>1426.230000</v>
+        <v>1426.23</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.922000</v>
+        <v>-313.92200000000003</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>2277.871239</v>
+        <v>2277.8712390000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.632742</v>
+        <v>0.63274200000000003</v>
       </c>
       <c r="BA6" s="1">
-        <v>1445.240000</v>
+        <v>1445.24</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.597000</v>
+        <v>-366.59699999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>2289.210280</v>
+        <v>2289.2102799999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>0.635892</v>
+        <v>0.63589200000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1528.600000</v>
+        <v>1528.6</v>
       </c>
       <c r="BG6" s="1">
-        <v>-618.601000</v>
+        <v>-618.601</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>2300.270600</v>
+        <v>2300.2705999999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.638964</v>
+        <v>0.63896399999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1679.860000</v>
+        <v>1679.86</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1073.370000</v>
+        <v>-1073.3699999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>2311.414688</v>
+        <v>2311.4146879999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>0.642060</v>
+        <v>0.64205999999999996</v>
       </c>
       <c r="BP6" s="1">
-        <v>1970.670000</v>
+        <v>1970.67</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1866.320000</v>
+        <v>-1866.32</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>2321.846045</v>
+        <v>2321.8460449999998</v>
       </c>
       <c r="BT6" s="1">
         <v>0.644957</v>
       </c>
       <c r="BU6" s="1">
-        <v>2354.760000</v>
+        <v>2354.7600000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2788.090000</v>
+        <v>-2788.09</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>2332.899885</v>
+        <v>2332.8998849999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>0.648028</v>
+        <v>0.64802800000000005</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2841.240000</v>
+        <v>2841.24</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3796.330000</v>
+        <v>-3796.33</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>2344.289022</v>
+        <v>2344.2890219999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>0.651191</v>
+        <v>0.65119099999999996</v>
       </c>
       <c r="CE6" s="1">
-        <v>4282.190000</v>
+        <v>4282.1899999999996</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6258.980000</v>
+        <v>-6258.98</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>2174.071472</v>
+        <v>2174.0714720000001</v>
       </c>
       <c r="B7" s="1">
-        <v>0.603909</v>
+        <v>0.60390900000000003</v>
       </c>
       <c r="C7" s="1">
-        <v>1244.100000</v>
+        <v>1244.0999999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-305.405000</v>
+        <v>-305.40499999999997</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>2184.482537</v>
+        <v>2184.4825369999999</v>
       </c>
       <c r="G7" s="1">
-        <v>0.606801</v>
+        <v>0.60680100000000003</v>
       </c>
       <c r="H7" s="1">
-        <v>1269.560000</v>
+        <v>1269.56</v>
       </c>
       <c r="I7" s="1">
-        <v>-264.358000</v>
+        <v>-264.358</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>2194.942627</v>
+        <v>2194.9426269999999</v>
       </c>
       <c r="L7" s="1">
-        <v>0.609706</v>
+        <v>0.60970599999999997</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.110000</v>
+        <v>1305.1099999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.755000</v>
+        <v>-201.755</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>2205.530725</v>
+        <v>2205.5307250000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.612647</v>
+        <v>0.61264700000000005</v>
       </c>
       <c r="R7" s="1">
-        <v>1317.100000</v>
+        <v>1317.1</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.133000</v>
+        <v>-184.13300000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>2215.718056</v>
+        <v>2215.7180560000002</v>
       </c>
       <c r="V7" s="1">
-        <v>0.615477</v>
+        <v>0.61547700000000005</v>
       </c>
       <c r="W7" s="1">
-        <v>1330.120000</v>
+        <v>1330.12</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.818000</v>
+        <v>-170.81800000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>2226.173722</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.618382</v>
+        <v>0.61838199999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1347.360000</v>
+        <v>1347.36</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.965000</v>
+        <v>-168.965</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>2236.410652</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.621225</v>
+        <v>0.62122500000000003</v>
       </c>
       <c r="AG7" s="1">
-        <v>1360.180000</v>
+        <v>1360.18</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.889000</v>
+        <v>-178.88900000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>2246.579135</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.624050</v>
+        <v>0.62404999999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1380.650000</v>
+        <v>1380.65</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.328000</v>
+        <v>-209.328</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>2256.867664</v>
+        <v>2256.8676639999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.626908</v>
+        <v>0.62690800000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1402.050000</v>
+        <v>1402.05</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.499000</v>
+        <v>-253.499</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>2267.876354</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.629966</v>
+        <v>0.62996600000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>1426.240000</v>
+        <v>1426.24</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.901000</v>
+        <v>-313.90100000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>2278.586508</v>
+        <v>2278.5865079999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0.632941</v>
+        <v>0.63294099999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1445.190000</v>
+        <v>1445.19</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.593000</v>
+        <v>-366.59300000000002</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>2289.571862</v>
+        <v>2289.5718619999998</v>
       </c>
       <c r="BE7" s="1">
         <v>0.635992</v>
       </c>
       <c r="BF7" s="1">
-        <v>1528.630000</v>
+        <v>1528.63</v>
       </c>
       <c r="BG7" s="1">
-        <v>-618.671000</v>
+        <v>-618.67100000000005</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>2300.644089</v>
+        <v>2300.6440889999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0.639068</v>
+        <v>0.63906799999999997</v>
       </c>
       <c r="BK7" s="1">
-        <v>1679.840000</v>
+        <v>1679.84</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1073.440000</v>
+        <v>-1073.44</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>2311.836280</v>
+        <v>2311.83628</v>
       </c>
       <c r="BO7" s="1">
         <v>0.642177</v>
       </c>
       <c r="BP7" s="1">
-        <v>1970.630000</v>
+        <v>1970.63</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1866.260000</v>
+        <v>-1866.26</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>2322.554334</v>
+        <v>2322.5543339999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.645154</v>
+        <v>0.64515400000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2354.400000</v>
+        <v>2354.4</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2787.360000</v>
+        <v>-2787.36</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>2333.050668</v>
+        <v>2333.0506679999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>0.648070</v>
+        <v>0.64807000000000003</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2841.620000</v>
+        <v>2841.62</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3796.410000</v>
+        <v>-3796.41</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>2344.522637</v>
       </c>
       <c r="CD7" s="1">
-        <v>0.651256</v>
+        <v>0.65125599999999995</v>
       </c>
       <c r="CE7" s="1">
-        <v>4279.390000</v>
+        <v>4279.3900000000003</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6240.940000</v>
+        <v>-6240.94</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>2174.414734</v>
       </c>
       <c r="B8" s="1">
-        <v>0.604004</v>
+        <v>0.60400399999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1244.640000</v>
+        <v>1244.6400000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-305.391000</v>
+        <v>-305.39100000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>2184.903600</v>
+        <v>2184.9036000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>0.606918</v>
+        <v>0.60691799999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>1269.760000</v>
+        <v>1269.76</v>
       </c>
       <c r="I8" s="1">
-        <v>-263.997000</v>
+        <v>-263.99700000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>2195.374642</v>
+        <v>2195.3746420000002</v>
       </c>
       <c r="L8" s="1">
-        <v>0.609826</v>
+        <v>0.60982599999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.230000</v>
+        <v>1305.23</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.138000</v>
+        <v>-202.13800000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>2205.817413</v>
+        <v>2205.8174130000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.612727</v>
+        <v>0.61272700000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>1317.060000</v>
+        <v>1317.06</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.132000</v>
+        <v>-184.13200000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>2216.060327</v>
+        <v>2216.0603270000001</v>
       </c>
       <c r="V8" s="1">
-        <v>0.615572</v>
+        <v>0.61557200000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1330.090000</v>
+        <v>1330.09</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.917000</v>
+        <v>-170.917</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>2226.522905</v>
+        <v>2226.5229049999998</v>
       </c>
       <c r="AA8" s="1">
         <v>0.618479</v>
       </c>
       <c r="AB8" s="1">
-        <v>1347.090000</v>
+        <v>1347.09</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.970000</v>
+        <v>-168.97</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>2236.754380</v>
+        <v>2236.7543799999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.621321</v>
+        <v>0.62132100000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1360.150000</v>
+        <v>1360.15</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.931000</v>
+        <v>-178.93100000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>2247.274559</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.624243</v>
+        <v>0.62424299999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1380.650000</v>
+        <v>1380.65</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.306000</v>
+        <v>-209.30600000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>2257.587376</v>
+        <v>2257.5873759999999</v>
       </c>
       <c r="AP8" s="1">
         <v>0.627108</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1402.040000</v>
+        <v>1402.04</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.474000</v>
+        <v>-253.47399999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>2268.268194</v>
+        <v>2268.2681940000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.630074</v>
+        <v>0.63007400000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1426.260000</v>
+        <v>1426.26</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.940000</v>
+        <v>-313.94</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>2278.944086</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.633040</v>
+        <v>0.63304000000000005</v>
       </c>
       <c r="BA8" s="1">
-        <v>1445.240000</v>
+        <v>1445.24</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.618000</v>
+        <v>-366.61799999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>2289.928485</v>
+        <v>2289.9284849999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>0.636091</v>
+        <v>0.63609099999999996</v>
       </c>
       <c r="BF8" s="1">
-        <v>1528.650000</v>
+        <v>1528.65</v>
       </c>
       <c r="BG8" s="1">
-        <v>-618.620000</v>
+        <v>-618.62</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>2301.334982</v>
+        <v>2301.3349819999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>0.639260</v>
+        <v>0.63926000000000005</v>
       </c>
       <c r="BK8" s="1">
-        <v>1679.800000</v>
+        <v>1679.8</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1073.410000</v>
+        <v>-1073.4100000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>2312.301531</v>
+        <v>2312.3015310000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>0.642306</v>
+        <v>0.64230600000000004</v>
       </c>
       <c r="BP8" s="1">
-        <v>1970.600000</v>
+        <v>1970.6</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1866.350000</v>
+        <v>-1866.35</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>2322.700171</v>
       </c>
       <c r="BT8" s="1">
-        <v>0.645194</v>
+        <v>0.64519400000000005</v>
       </c>
       <c r="BU8" s="1">
-        <v>2354.170000</v>
+        <v>2354.17</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2786.860000</v>
+        <v>-2786.86</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>2333.475248</v>
+        <v>2333.4752480000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>0.648188</v>
+        <v>0.64818799999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2841.210000</v>
+        <v>2841.21</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3796.240000</v>
+        <v>-3796.24</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>2345.055848</v>
       </c>
       <c r="CD8" s="1">
-        <v>0.651404</v>
+        <v>0.65140399999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>4265.790000</v>
+        <v>4265.79</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6254.690000</v>
+        <v>-6254.69</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>2174.839774</v>
       </c>
       <c r="B9" s="1">
-        <v>0.604122</v>
+        <v>0.60412200000000005</v>
       </c>
       <c r="C9" s="1">
-        <v>1244.230000</v>
+        <v>1244.23</v>
       </c>
       <c r="D9" s="1">
-        <v>-305.144000</v>
+        <v>-305.14400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>2185.178880</v>
+        <v>2185.1788799999999</v>
       </c>
       <c r="G9" s="1">
-        <v>0.606994</v>
+        <v>0.60699400000000003</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.900000</v>
+        <v>1269.9000000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-264.037000</v>
+        <v>-264.03699999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>2195.631571</v>
+        <v>2195.6315709999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0.609898</v>
+        <v>0.60989800000000005</v>
       </c>
       <c r="M9" s="1">
-        <v>1304.880000</v>
+        <v>1304.8800000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.088000</v>
+        <v>-202.08799999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>2206.163620</v>
+        <v>2206.1636199999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.612823</v>
+        <v>0.61282300000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1317.050000</v>
+        <v>1317.05</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.166000</v>
+        <v>-184.166</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>2216.403527</v>
+        <v>2216.4035269999999</v>
       </c>
       <c r="V9" s="1">
-        <v>0.615668</v>
+        <v>0.61566799999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1330.010000</v>
+        <v>1330.01</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.790000</v>
+        <v>-170.79</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>2226.869112</v>
+        <v>2226.8691119999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.618575</v>
+        <v>0.61857499999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1347.270000</v>
+        <v>1347.27</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.928000</v>
+        <v>-168.928</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>2237.438859</v>
+        <v>2237.4388589999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.621511</v>
+        <v>0.62151100000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>1360.190000</v>
+        <v>1360.19</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.908000</v>
+        <v>-178.90799999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>2247.624701</v>
+        <v>2247.6247010000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>0.624340</v>
+        <v>0.62434000000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1380.630000</v>
+        <v>1380.63</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.279000</v>
+        <v>-209.279</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>2257.950912</v>
+        <v>2257.9509119999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.627209</v>
+        <v>0.62720900000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1402.070000</v>
+        <v>1402.07</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.473000</v>
+        <v>-253.47300000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>2268.633061</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.630176</v>
+        <v>0.63017599999999996</v>
       </c>
       <c r="AV9" s="1">
-        <v>1426.240000</v>
+        <v>1426.24</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.901000</v>
+        <v>-313.90100000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>2279.616163</v>
+        <v>2279.6161630000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>0.633227</v>
+        <v>0.63322699999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1445.190000</v>
+        <v>1445.19</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.594000</v>
+        <v>-366.59399999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>2290.587173</v>
+        <v>2290.5871729999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>0.636274</v>
+        <v>0.63627400000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1528.630000</v>
+        <v>1528.63</v>
       </c>
       <c r="BG9" s="1">
-        <v>-618.606000</v>
+        <v>-618.60599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>2301.770966</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0.639381</v>
+        <v>0.63938099999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1679.820000</v>
+        <v>1679.82</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1073.260000</v>
+        <v>-1073.26</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>2312.653725</v>
+        <v>2312.6537250000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>0.642404</v>
+        <v>0.64240399999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1970.700000</v>
+        <v>1970.7</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1866.290000</v>
+        <v>-1866.29</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>2323.141099</v>
+        <v>2323.1410989999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>0.645317</v>
+        <v>0.64531700000000003</v>
       </c>
       <c r="BU9" s="1">
-        <v>2353.870000</v>
+        <v>2353.87</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2786.430000</v>
+        <v>-2786.43</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>2333.922139</v>
+        <v>2333.9221389999998</v>
       </c>
       <c r="BY9" s="1">
         <v>0.648312</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2840.750000</v>
+        <v>2840.75</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3795.690000</v>
+        <v>-3795.69</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>2345.622301</v>
+        <v>2345.6223009999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>0.651562</v>
+        <v>0.65156199999999997</v>
       </c>
       <c r="CE9" s="1">
-        <v>4278.950000</v>
+        <v>4278.95</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6238.440000</v>
+        <v>-6238.44</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>2175.118526</v>
+        <v>2175.1185260000002</v>
       </c>
       <c r="B10" s="1">
-        <v>0.604200</v>
+        <v>0.60419999999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>1244.140000</v>
+        <v>1244.1400000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-305.239000</v>
+        <v>-305.23899999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>2185.523899</v>
+        <v>2185.5238989999998</v>
       </c>
       <c r="G10" s="1">
-        <v>0.607090</v>
+        <v>0.60709000000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>1269.570000</v>
+        <v>1269.57</v>
       </c>
       <c r="I10" s="1">
-        <v>-263.819000</v>
+        <v>-263.81900000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>2196.008034</v>
       </c>
       <c r="L10" s="1">
-        <v>0.610002</v>
+        <v>0.61000200000000004</v>
       </c>
       <c r="M10" s="1">
-        <v>1304.950000</v>
+        <v>1304.95</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.112000</v>
+        <v>-202.11199999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>2206.515317</v>
+        <v>2206.5153169999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.612921</v>
+        <v>0.61292100000000005</v>
       </c>
       <c r="R10" s="1">
-        <v>1317.000000</v>
+        <v>1317</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.070000</v>
+        <v>-184.07</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>2217.089494</v>
+        <v>2217.0894939999998</v>
       </c>
       <c r="V10" s="1">
-        <v>0.615858</v>
+        <v>0.61585800000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1330.190000</v>
+        <v>1330.19</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.789000</v>
+        <v>-170.78899999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>2227.567016</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.618769</v>
+        <v>0.61876900000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1347.280000</v>
+        <v>1347.28</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.880000</v>
+        <v>-168.88</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>2237.784572</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.621607</v>
+        <v>0.62160700000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>1360.210000</v>
+        <v>1360.21</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.842000</v>
+        <v>-178.84200000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>2247.975373</v>
+        <v>2247.9753730000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.624438</v>
+        <v>0.62443800000000005</v>
       </c>
       <c r="AL10" s="1">
-        <v>1380.640000</v>
+        <v>1380.64</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.299000</v>
+        <v>-209.29900000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>2258.311039</v>
+        <v>2258.3110390000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.627309</v>
+        <v>0.62730900000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1402.070000</v>
+        <v>1402.07</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.457000</v>
+        <v>-253.45699999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>2269.301361</v>
+        <v>2269.3013609999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>0.630361</v>
+        <v>0.63036099999999995</v>
       </c>
       <c r="AV10" s="1">
-        <v>1426.250000</v>
+        <v>1426.25</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.888000</v>
+        <v>-313.88799999999998</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>2280.020402</v>
+        <v>2280.0204020000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0.633339</v>
+        <v>0.63333899999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1445.190000</v>
+        <v>1445.19</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.609000</v>
+        <v>-366.60899999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>2291.049940</v>
+        <v>2291.0499399999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>0.636403</v>
+        <v>0.63640300000000005</v>
       </c>
       <c r="BF10" s="1">
-        <v>1528.640000</v>
+        <v>1528.64</v>
       </c>
       <c r="BG10" s="1">
-        <v>-618.619000</v>
+        <v>-618.61900000000003</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>2302.143494</v>
+        <v>2302.1434939999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0.639484</v>
+        <v>0.63948400000000005</v>
       </c>
       <c r="BK10" s="1">
-        <v>1679.750000</v>
+        <v>1679.75</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1073.340000</v>
+        <v>-1073.3399999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>2313.051481</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.642514</v>
+        <v>0.64251400000000003</v>
       </c>
       <c r="BP10" s="1">
-        <v>1970.500000</v>
+        <v>1970.5</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1866.210000</v>
+        <v>-1866.21</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>2323.566202</v>
       </c>
       <c r="BT10" s="1">
-        <v>0.645435</v>
+        <v>0.64543499999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>2354.300000</v>
+        <v>2354.3000000000002</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2785.720000</v>
+        <v>-2785.72</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>2334.352698</v>
+        <v>2334.3526980000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>0.648431</v>
+        <v>0.64843099999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2841.460000</v>
+        <v>2841.46</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3796.260000</v>
+        <v>-3796.26</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>2346.133147</v>
       </c>
       <c r="CD10" s="1">
-        <v>0.651704</v>
+        <v>0.65170399999999995</v>
       </c>
       <c r="CE10" s="1">
-        <v>4277.820000</v>
+        <v>4277.82</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6239.090000</v>
+        <v>-6239.09</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>2175.460802</v>
+        <v>2175.4608020000001</v>
       </c>
       <c r="B11" s="1">
-        <v>0.604295</v>
+        <v>0.60429500000000003</v>
       </c>
       <c r="C11" s="1">
-        <v>1244.340000</v>
+        <v>1244.3399999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-305.253000</v>
+        <v>-305.25299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>2185.867327</v>
+        <v>2185.8673269999999</v>
       </c>
       <c r="G11" s="1">
-        <v>0.607185</v>
+        <v>0.60718499999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>1269.730000</v>
+        <v>1269.73</v>
       </c>
       <c r="I11" s="1">
-        <v>-264.027000</v>
+        <v>-264.02699999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>2196.595335</v>
       </c>
       <c r="L11" s="1">
-        <v>0.610165</v>
+        <v>0.61016499999999996</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.210000</v>
+        <v>1305.21</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.963000</v>
+        <v>-201.96299999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>2207.210676</v>
+        <v>2207.2106760000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.613114</v>
+        <v>0.61311400000000005</v>
       </c>
       <c r="R11" s="1">
-        <v>1317.030000</v>
+        <v>1317.03</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.011000</v>
+        <v>-184.011</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>2217.434214</v>
+        <v>2217.4342139999999</v>
       </c>
       <c r="V11" s="1">
         <v>0.615954</v>
       </c>
       <c r="W11" s="1">
-        <v>1330.160000</v>
+        <v>1330.16</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.893000</v>
+        <v>-170.893</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>2227.915175</v>
+        <v>2227.9151750000001</v>
       </c>
       <c r="AA11" s="1">
         <v>0.618865</v>
       </c>
       <c r="AB11" s="1">
-        <v>1347.200000</v>
+        <v>1347.2</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.950000</v>
+        <v>-168.95</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>2238.126810</v>
+        <v>2238.1268100000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.621702</v>
+        <v>0.62170199999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1360.210000</v>
+        <v>1360.21</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.881000</v>
+        <v>-178.881</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>2248.623148</v>
+        <v>2248.6231480000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.624618</v>
+        <v>0.62461800000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1380.630000</v>
+        <v>1380.63</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.306000</v>
+        <v>-209.30600000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>2258.984086</v>
+        <v>2258.9840859999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.627496</v>
+        <v>0.62749600000000005</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1402.060000</v>
+        <v>1402.06</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.451000</v>
+        <v>-253.45099999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>2269.725938</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.630479</v>
+        <v>0.63047900000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1426.230000</v>
+        <v>1426.23</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.913000</v>
+        <v>-313.91300000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>2280.405331</v>
+        <v>2280.4053309999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.633446</v>
+        <v>0.63344599999999995</v>
       </c>
       <c r="BA11" s="1">
-        <v>1445.170000</v>
+        <v>1445.17</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.615000</v>
+        <v>-366.61500000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>2291.410036</v>
+        <v>2291.4100360000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>0.636503</v>
+        <v>0.63650300000000004</v>
       </c>
       <c r="BF11" s="1">
-        <v>1528.620000</v>
+        <v>1528.62</v>
       </c>
       <c r="BG11" s="1">
-        <v>-618.568000</v>
+        <v>-618.56799999999998</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>2302.519925</v>
+        <v>2302.5199250000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.639589</v>
+        <v>0.63958899999999996</v>
       </c>
       <c r="BK11" s="1">
-        <v>1679.740000</v>
+        <v>1679.74</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1073.410000</v>
+        <v>-1073.4100000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>2313.473079</v>
+        <v>2313.4730789999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.642631</v>
+        <v>0.64263099999999995</v>
       </c>
       <c r="BP11" s="1">
-        <v>1970.480000</v>
+        <v>1970.48</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1866.220000</v>
+        <v>-1866.22</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>2323.991769</v>
+        <v>2323.9917690000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.645553</v>
+        <v>0.64555300000000004</v>
       </c>
       <c r="BU11" s="1">
-        <v>2354.190000</v>
+        <v>2354.19</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2785.310000</v>
+        <v>-2785.31</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>2334.773770</v>
+        <v>2334.7737699999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>0.648548</v>
+        <v>0.64854800000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2841.060000</v>
+        <v>2841.06</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3795.590000</v>
+        <v>-3795.59</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>2346.652458</v>
       </c>
       <c r="CD11" s="1">
-        <v>0.651848</v>
+        <v>0.65184799999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>4267.630000</v>
+        <v>4267.63</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6249.600000</v>
+        <v>-6249.6</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>2175.799069</v>
+        <v>2175.7990690000001</v>
       </c>
       <c r="B12" s="1">
-        <v>0.604389</v>
+        <v>0.60438899999999995</v>
       </c>
       <c r="C12" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="D12" s="1">
-        <v>-305.136000</v>
+        <v>-305.13600000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>2186.556272</v>
+        <v>2186.5562719999998</v>
       </c>
       <c r="G12" s="1">
-        <v>0.607377</v>
+        <v>0.60737699999999994</v>
       </c>
       <c r="H12" s="1">
-        <v>1270.130000</v>
+        <v>1270.1300000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-264.131000</v>
+        <v>-264.13099999999997</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>2197.024834</v>
+        <v>2197.0248339999998</v>
       </c>
       <c r="L12" s="1">
-        <v>0.610285</v>
+        <v>0.61028499999999997</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.070000</v>
+        <v>1305.07</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.944000</v>
+        <v>-201.94399999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>2207.560355</v>
+        <v>2207.5603550000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.613211</v>
+        <v>0.61321099999999995</v>
       </c>
       <c r="R12" s="1">
-        <v>1317.120000</v>
+        <v>1317.12</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.120000</v>
+        <v>-184.12</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>2217.777445</v>
+        <v>2217.7774450000002</v>
       </c>
       <c r="V12" s="1">
-        <v>0.616049</v>
+        <v>0.61604899999999996</v>
       </c>
       <c r="W12" s="1">
-        <v>1330.130000</v>
+        <v>1330.13</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.859000</v>
+        <v>-170.85900000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>2228.263896</v>
+        <v>2228.2638959999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.618962</v>
+        <v>0.61896200000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1347.430000</v>
+        <v>1347.43</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.831000</v>
+        <v>-168.83099999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>2238.785001</v>
+        <v>2238.7850010000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.621885</v>
+        <v>0.62188500000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>1360.180000</v>
+        <v>1360.18</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.850000</v>
+        <v>-178.85</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>2249.019484</v>
+        <v>2249.0194839999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.624728</v>
+        <v>0.62472799999999995</v>
       </c>
       <c r="AL12" s="1">
-        <v>1380.620000</v>
+        <v>1380.62</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.302000</v>
+        <v>-209.30199999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>2259.422046</v>
+        <v>2259.4220460000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>0.627617</v>
+        <v>0.62761699999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1402.040000</v>
+        <v>1402.04</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.482000</v>
+        <v>-253.482</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>2270.091487</v>
+        <v>2270.0914870000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.630581</v>
+        <v>0.63058099999999995</v>
       </c>
       <c r="AV12" s="1">
-        <v>1426.250000</v>
+        <v>1426.25</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.907000</v>
+        <v>-313.90699999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>2280.762914</v>
+        <v>2280.7629139999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.633545</v>
+        <v>0.63354500000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1445.230000</v>
+        <v>1445.23</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.568000</v>
+        <v>-366.56799999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>2291.772116</v>
+        <v>2291.7721160000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>0.636603</v>
+        <v>0.63660300000000003</v>
       </c>
       <c r="BF12" s="1">
-        <v>1528.630000</v>
+        <v>1528.63</v>
       </c>
       <c r="BG12" s="1">
-        <v>-618.617000</v>
+        <v>-618.61699999999996</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>2302.935605</v>
+        <v>2302.9356050000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.639704</v>
+        <v>0.63970400000000005</v>
       </c>
       <c r="BK12" s="1">
-        <v>1679.740000</v>
+        <v>1679.74</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1073.340000</v>
+        <v>-1073.3399999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>2313.868918</v>
+        <v>2313.8689180000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.642741</v>
+        <v>0.64274100000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1970.560000</v>
+        <v>1970.56</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1866.320000</v>
+        <v>-1866.32</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>2324.411548</v>
       </c>
       <c r="BT12" s="1">
-        <v>0.645670</v>
+        <v>0.64566999999999997</v>
       </c>
       <c r="BU12" s="1">
-        <v>2354.560000</v>
+        <v>2354.56</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2784.630000</v>
+        <v>-2784.63</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>2335.194912</v>
+        <v>2335.1949119999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>0.648665</v>
+        <v>0.64866500000000005</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2840.850000</v>
+        <v>2840.85</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3796.140000</v>
+        <v>-3796.14</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>2347.169304</v>
       </c>
       <c r="CD12" s="1">
-        <v>0.651991</v>
+        <v>0.65199099999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4266.580000</v>
+        <v>4266.58</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6243.850000</v>
+        <v>-6243.85</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>2176.484049</v>
+        <v>2176.4840490000001</v>
       </c>
       <c r="B13" s="1">
-        <v>0.604579</v>
+        <v>0.60457899999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>1244.150000</v>
+        <v>1244.1500000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-305.317000</v>
+        <v>-305.31700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>2186.901982</v>
+        <v>2186.9019819999999</v>
       </c>
       <c r="G13" s="1">
-        <v>0.607473</v>
+        <v>0.60747300000000004</v>
       </c>
       <c r="H13" s="1">
-        <v>1269.510000</v>
+        <v>1269.51</v>
       </c>
       <c r="I13" s="1">
-        <v>-264.047000</v>
+        <v>-264.04700000000003</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>2197.372915</v>
+        <v>2197.3729149999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0.610381</v>
+        <v>0.61038099999999995</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.130000</v>
+        <v>1305.1300000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-202.063000</v>
+        <v>-202.06299999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>2207.910061</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.613308</v>
+        <v>0.61330799999999996</v>
       </c>
       <c r="R13" s="1">
-        <v>1317.100000</v>
+        <v>1317.1</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.185000</v>
+        <v>-184.185</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>2218.418277</v>
+        <v>2218.4182770000002</v>
       </c>
       <c r="V13" s="1">
-        <v>0.616227</v>
+        <v>0.61622699999999997</v>
       </c>
       <c r="W13" s="1">
-        <v>1330.180000</v>
+        <v>1330.18</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.829000</v>
+        <v>-170.82900000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>2228.927512</v>
+        <v>2228.9275120000002</v>
       </c>
       <c r="AA13" s="1">
         <v>0.619147</v>
       </c>
       <c r="AB13" s="1">
-        <v>1347.330000</v>
+        <v>1347.33</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.925000</v>
+        <v>-168.92500000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>2239.159481</v>
+        <v>2239.1594810000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.621989</v>
+        <v>0.62198900000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1360.120000</v>
+        <v>1360.12</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.840000</v>
+        <v>-178.84</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>2249.367178</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.624824</v>
+        <v>0.62482400000000005</v>
       </c>
       <c r="AL13" s="1">
-        <v>1380.630000</v>
+        <v>1380.63</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.294000</v>
+        <v>-209.29400000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>2259.783889</v>
+        <v>2259.7838889999998</v>
       </c>
       <c r="AP13" s="1">
         <v>0.627718</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1402.030000</v>
+        <v>1402.03</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.485000</v>
+        <v>-253.48500000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>2270.457039</v>
+        <v>2270.4570389999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>0.630683</v>
+        <v>0.63068299999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1426.230000</v>
+        <v>1426.23</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.922000</v>
+        <v>-313.92200000000003</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>2281.176577</v>
+        <v>2281.1765770000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.633660</v>
+        <v>0.63366</v>
       </c>
       <c r="BA13" s="1">
-        <v>1445.210000</v>
+        <v>1445.21</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.602000</v>
+        <v>-366.60199999999998</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>2292.187762</v>
       </c>
       <c r="BE13" s="1">
-        <v>0.636719</v>
+        <v>0.63671900000000003</v>
       </c>
       <c r="BF13" s="1">
-        <v>1528.630000</v>
+        <v>1528.63</v>
       </c>
       <c r="BG13" s="1">
-        <v>-618.623000</v>
+        <v>-618.62300000000005</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>2303.295172</v>
+        <v>2303.2951720000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>0.639804</v>
+        <v>0.63980400000000004</v>
       </c>
       <c r="BK13" s="1">
-        <v>1679.690000</v>
+        <v>1679.69</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1073.270000</v>
+        <v>-1073.27</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>2314.288997</v>
+        <v>2314.2889970000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.642858</v>
+        <v>0.64285800000000004</v>
       </c>
       <c r="BP13" s="1">
-        <v>1970.530000</v>
+        <v>1970.53</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1866.220000</v>
+        <v>-1866.22</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>2324.836952</v>
+        <v>2324.8369520000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>0.645788</v>
+        <v>0.64578800000000003</v>
       </c>
       <c r="BU13" s="1">
-        <v>2355.340000</v>
+        <v>2355.34</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2784.440000</v>
+        <v>-2784.44</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>2335.624409</v>
       </c>
       <c r="BY13" s="1">
-        <v>0.648785</v>
+        <v>0.64878499999999995</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2840.490000</v>
+        <v>2840.49</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3796.190000</v>
+        <v>-3796.19</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>2347.723321</v>
+        <v>2347.7233209999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>0.652145</v>
+        <v>0.65214499999999997</v>
       </c>
       <c r="CE13" s="1">
-        <v>4277.940000</v>
+        <v>4277.9399999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6238.140000</v>
+        <v>-6238.14</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>2176.830219</v>
+        <v>2176.8302189999999</v>
       </c>
       <c r="B14" s="1">
-        <v>0.604675</v>
+        <v>0.60467499999999996</v>
       </c>
       <c r="C14" s="1">
-        <v>1244.450000</v>
+        <v>1244.45</v>
       </c>
       <c r="D14" s="1">
-        <v>-305.312000</v>
+        <v>-305.31200000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>2187.248189</v>
+        <v>2187.2481889999999</v>
       </c>
       <c r="G14" s="1">
-        <v>0.607569</v>
+        <v>0.60756900000000003</v>
       </c>
       <c r="H14" s="1">
-        <v>1269.810000</v>
+        <v>1269.81</v>
       </c>
       <c r="I14" s="1">
-        <v>-263.970000</v>
+        <v>-263.97000000000003</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>2198.012864</v>
+        <v>2198.0128639999998</v>
       </c>
       <c r="L14" s="1">
-        <v>0.610559</v>
+        <v>0.61055899999999996</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.210000</v>
+        <v>1305.21</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.846000</v>
+        <v>-201.846</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>2208.566273</v>
+        <v>2208.5662729999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.613491</v>
+        <v>0.61349100000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1317.030000</v>
+        <v>1317.03</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.230000</v>
+        <v>-184.23</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>2218.819079</v>
+        <v>2218.8190789999999</v>
       </c>
       <c r="V14" s="1">
-        <v>0.616339</v>
+        <v>0.61633899999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>1330.120000</v>
+        <v>1330.12</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.753000</v>
+        <v>-170.75299999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>2229.311447</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.619253</v>
+        <v>0.61925300000000005</v>
       </c>
       <c r="AB14" s="1">
-        <v>1347.090000</v>
+        <v>1347.09</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.066000</v>
+        <v>-169.066</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>2239.502217</v>
+        <v>2239.5022170000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.622084</v>
+        <v>0.62208399999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>1360.210000</v>
+        <v>1360.21</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.873000</v>
+        <v>-178.87299999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>2249.718315</v>
+        <v>2249.7183150000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.624922</v>
+        <v>0.62492199999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1380.650000</v>
+        <v>1380.65</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.291000</v>
+        <v>-209.291</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>2260.140287</v>
+        <v>2260.1402870000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.627817</v>
+        <v>0.62781699999999996</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1402.010000</v>
+        <v>1402.01</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.473000</v>
+        <v>-253.47300000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>2270.875662</v>
+        <v>2270.8756619999999</v>
       </c>
       <c r="AU14" s="1">
         <v>0.630799</v>
       </c>
       <c r="AV14" s="1">
-        <v>1426.210000</v>
+        <v>1426.21</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.910000</v>
+        <v>-313.91000000000003</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>2281.480624</v>
+        <v>2281.4806239999998</v>
       </c>
       <c r="AZ14" s="1">
         <v>0.633745</v>
       </c>
       <c r="BA14" s="1">
-        <v>1445.230000</v>
+        <v>1445.23</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.557000</v>
+        <v>-366.55700000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>2292.493827</v>
+        <v>2292.4938269999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>0.636804</v>
+        <v>0.63680400000000004</v>
       </c>
       <c r="BF14" s="1">
-        <v>1528.620000</v>
+        <v>1528.62</v>
       </c>
       <c r="BG14" s="1">
-        <v>-618.573000</v>
+        <v>-618.57299999999998</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>2303.667700</v>
+        <v>2303.6677</v>
       </c>
       <c r="BJ14" s="1">
-        <v>0.639908</v>
+        <v>0.63990800000000003</v>
       </c>
       <c r="BK14" s="1">
-        <v>1679.800000</v>
+        <v>1679.8</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1073.240000</v>
+        <v>-1073.24</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>2314.686789</v>
+        <v>2314.6867889999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.642969</v>
+        <v>0.64296900000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1970.490000</v>
+        <v>1970.49</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1866.260000</v>
+        <v>-1866.26</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>2325.246614</v>
+        <v>2325.2466140000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>0.645902</v>
+        <v>0.64590199999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>2355.640000</v>
+        <v>2355.64</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2784.100000</v>
+        <v>-2784.1</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>2336.038568</v>
+        <v>2336.0385679999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>0.648900</v>
+        <v>0.64890000000000003</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2841.040000</v>
+        <v>2841.04</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3795.290000</v>
+        <v>-3795.29</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>2348.250569</v>
+        <v>2348.2505689999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>0.652292</v>
+        <v>0.65229199999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>4266.570000</v>
+        <v>4266.57</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6248.240000</v>
+        <v>-6248.24</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>2177.171964</v>
+        <v>2177.1719640000001</v>
       </c>
       <c r="B15" s="1">
-        <v>0.604770</v>
+        <v>0.60477000000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>1244.590000</v>
+        <v>1244.5899999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-305.164000</v>
+        <v>-305.16399999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>2187.903901</v>
+        <v>2187.9039010000001</v>
       </c>
       <c r="G15" s="1">
-        <v>0.607751</v>
+        <v>0.60775100000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>1269.970000</v>
+        <v>1269.97</v>
       </c>
       <c r="I15" s="1">
-        <v>-263.859000</v>
+        <v>-263.85899999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>2198.407719</v>
+        <v>2198.4077189999998</v>
       </c>
       <c r="L15" s="1">
-        <v>0.610669</v>
+        <v>0.61066900000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.000000</v>
+        <v>1305</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.737000</v>
+        <v>-201.73699999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>2208.955108</v>
+        <v>2208.9551080000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.613599</v>
+        <v>0.61359900000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1317.070000</v>
+        <v>1317.07</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.086000</v>
+        <v>-184.08600000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>2219.151859</v>
+        <v>2219.1518590000001</v>
       </c>
       <c r="V15" s="1">
-        <v>0.616431</v>
+        <v>0.61643099999999995</v>
       </c>
       <c r="W15" s="1">
-        <v>1330.060000</v>
+        <v>1330.06</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.917000</v>
+        <v>-170.917</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>2229.659124</v>
+        <v>2229.6591239999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.619350</v>
+        <v>0.61934999999999996</v>
       </c>
       <c r="AB15" s="1">
-        <v>1347.360000</v>
+        <v>1347.36</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.090000</v>
+        <v>-169.09</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>2239.844456</v>
+        <v>2239.8444559999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.622179</v>
+        <v>0.62217900000000004</v>
       </c>
       <c r="AG15" s="1">
-        <v>1360.170000</v>
+        <v>1360.17</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.931000</v>
+        <v>-178.93100000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>2250.145370</v>
+        <v>2250.1453700000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.625040</v>
+        <v>0.62504000000000004</v>
       </c>
       <c r="AL15" s="1">
-        <v>1380.610000</v>
+        <v>1380.61</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.318000</v>
+        <v>-209.31800000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>2260.548957</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.627930</v>
+        <v>0.62792999999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1402.020000</v>
+        <v>1402.02</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.455000</v>
+        <v>-253.45500000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>2271.187150</v>
+        <v>2271.1871500000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>0.630885</v>
+        <v>0.63088500000000003</v>
       </c>
       <c r="AV15" s="1">
-        <v>1426.280000</v>
+        <v>1426.28</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.910000</v>
+        <v>-313.91000000000003</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>2281.840224</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0.633845</v>
+        <v>0.63384499999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1445.190000</v>
+        <v>1445.19</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.619000</v>
+        <v>-366.61900000000003</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>2292.853394</v>
+        <v>2292.8533940000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>0.636904</v>
+        <v>0.63690400000000003</v>
       </c>
       <c r="BF15" s="1">
-        <v>1528.610000</v>
+        <v>1528.61</v>
       </c>
       <c r="BG15" s="1">
-        <v>-618.563000</v>
+        <v>-618.56299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>2304.043666</v>
       </c>
       <c r="BJ15" s="1">
-        <v>0.640012</v>
+        <v>0.64001200000000003</v>
       </c>
       <c r="BK15" s="1">
-        <v>1679.800000</v>
+        <v>1679.8</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1073.300000</v>
+        <v>-1073.3</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>2315.108919</v>
+        <v>2315.1089189999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.643086</v>
+        <v>0.64308600000000005</v>
       </c>
       <c r="BP15" s="1">
-        <v>1970.500000</v>
+        <v>1970.5</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1866.010000</v>
+        <v>-1866.01</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>2325.679126</v>
       </c>
       <c r="BT15" s="1">
-        <v>0.646022</v>
+        <v>0.64602199999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2356.260000</v>
+        <v>2356.2600000000002</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2784.070000</v>
+        <v>-2784.07</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>2336.492904</v>
+        <v>2336.4929040000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>0.649026</v>
+        <v>0.64902599999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2840.110000</v>
+        <v>2840.11</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3795.760000</v>
+        <v>-3795.76</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>2348.768392</v>
+        <v>2348.7683919999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>0.652436</v>
+        <v>0.65243600000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>4284.460000</v>
+        <v>4284.46</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6258.680000</v>
+        <v>-6258.68</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>2177.819737</v>
+        <v>2177.8197369999998</v>
       </c>
       <c r="B16" s="1">
-        <v>0.604950</v>
+        <v>0.60494999999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1244.450000</v>
+        <v>1244.45</v>
       </c>
       <c r="D16" s="1">
-        <v>-305.129000</v>
+        <v>-305.12900000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>2188.283340</v>
+        <v>2188.28334</v>
       </c>
       <c r="G16" s="1">
-        <v>0.607856</v>
+        <v>0.60785599999999995</v>
       </c>
       <c r="H16" s="1">
-        <v>1270.040000</v>
+        <v>1270.04</v>
       </c>
       <c r="I16" s="1">
-        <v>-263.815000</v>
+        <v>-263.815</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>2198.755376</v>
+        <v>2198.7553760000001</v>
       </c>
       <c r="L16" s="1">
         <v>0.610765</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.430000</v>
+        <v>1305.43</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.214000</v>
+        <v>-202.214</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>2209.302336</v>
+        <v>2209.3023360000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.613695</v>
+        <v>0.61369499999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1317.050000</v>
+        <v>1317.05</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.142000</v>
+        <v>-184.142</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>2219.502034</v>
+        <v>2219.5020340000001</v>
       </c>
       <c r="V16" s="1">
-        <v>0.616528</v>
+        <v>0.61652799999999996</v>
       </c>
       <c r="W16" s="1">
-        <v>1330.150000</v>
+        <v>1330.15</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.828000</v>
+        <v>-170.828</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>2230.202248</v>
+        <v>2230.2022480000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.619501</v>
+        <v>0.61950099999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>1347.350000</v>
+        <v>1347.35</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.910000</v>
+        <v>-168.91</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>2240.257128</v>
+        <v>2240.2571280000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.622294</v>
+        <v>0.62229400000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1360.220000</v>
+        <v>1360.22</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.858000</v>
+        <v>-178.858</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>2250.420651</v>
+        <v>2250.4206509999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.625117</v>
+        <v>0.62511700000000003</v>
       </c>
       <c r="AL16" s="1">
-        <v>1380.650000</v>
+        <v>1380.65</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.293000</v>
+        <v>-209.29300000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>2260.860979</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.628017</v>
+        <v>0.62801700000000005</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1402.040000</v>
+        <v>1402.04</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.459000</v>
+        <v>-253.459</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>2271.549454</v>
       </c>
       <c r="AU16" s="1">
-        <v>0.630986</v>
+        <v>0.63098600000000005</v>
       </c>
       <c r="AV16" s="1">
-        <v>1426.240000</v>
+        <v>1426.24</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.907000</v>
+        <v>-313.90699999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>2282.196847</v>
+        <v>2282.1968470000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0.633944</v>
+        <v>0.63394399999999995</v>
       </c>
       <c r="BA16" s="1">
-        <v>1445.220000</v>
+        <v>1445.22</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.577000</v>
+        <v>-366.577</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>2293.218945</v>
+        <v>2293.2189450000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>0.637005</v>
+        <v>0.63700500000000004</v>
       </c>
       <c r="BF16" s="1">
-        <v>1528.630000</v>
+        <v>1528.63</v>
       </c>
       <c r="BG16" s="1">
-        <v>-618.601000</v>
+        <v>-618.601</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>2304.793118</v>
       </c>
       <c r="BJ16" s="1">
-        <v>0.640220</v>
+        <v>0.64022000000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1679.780000</v>
+        <v>1679.78</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1073.230000</v>
+        <v>-1073.23</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>2315.507701</v>
       </c>
       <c r="BO16" s="1">
-        <v>0.643197</v>
+        <v>0.64319700000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1970.320000</v>
+        <v>1970.32</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1866.130000</v>
+        <v>-1866.13</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>2326.106214</v>
+        <v>2326.1062139999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>0.646141</v>
+        <v>0.64614099999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>2356.620000</v>
+        <v>2356.62</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2783.760000</v>
+        <v>-2783.76</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>2336.941785</v>
       </c>
       <c r="BY16" s="1">
-        <v>0.649150</v>
+        <v>0.64915</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2840.320000</v>
+        <v>2840.32</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3796.390000</v>
+        <v>-3796.39</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>2349.618039</v>
       </c>
       <c r="CD16" s="1">
-        <v>0.652672</v>
+        <v>0.65267200000000003</v>
       </c>
       <c r="CE16" s="1">
-        <v>4262.810000</v>
+        <v>4262.8100000000004</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6253.610000</v>
+        <v>-6253.61</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>2178.195247</v>
+        <v>2178.1952470000001</v>
       </c>
       <c r="B17" s="1">
-        <v>0.605054</v>
+        <v>0.60505399999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>1244.280000</v>
+        <v>1244.28</v>
       </c>
       <c r="D17" s="1">
-        <v>-305.357000</v>
+        <v>-305.35700000000003</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>2188.627563</v>
       </c>
       <c r="G17" s="1">
-        <v>0.607952</v>
+        <v>0.60795200000000005</v>
       </c>
       <c r="H17" s="1">
-        <v>1269.680000</v>
+        <v>1269.68</v>
       </c>
       <c r="I17" s="1">
-        <v>-263.729000</v>
+        <v>-263.72899999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>2199.099629</v>
+        <v>2199.0996289999998</v>
       </c>
       <c r="L17" s="1">
-        <v>0.610861</v>
+        <v>0.61086099999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.180000</v>
+        <v>1305.18</v>
       </c>
       <c r="N17" s="1">
-        <v>-202.007000</v>
+        <v>-202.00700000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>2209.653008</v>
+        <v>2209.6530080000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.613793</v>
+        <v>0.61379300000000003</v>
       </c>
       <c r="R17" s="1">
-        <v>1317.070000</v>
+        <v>1317.07</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.131000</v>
+        <v>-184.131</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>2219.927634</v>
+        <v>2219.9276340000001</v>
       </c>
       <c r="V17" s="1">
-        <v>0.616647</v>
+        <v>0.61664699999999995</v>
       </c>
       <c r="W17" s="1">
-        <v>1330.090000</v>
+        <v>1330.09</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.834000</v>
+        <v>-170.834</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>2230.357012</v>
+        <v>2230.3570119999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.619544</v>
+        <v>0.61954399999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>1347.350000</v>
+        <v>1347.35</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.971000</v>
+        <v>-168.971</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>2240.555224</v>
+        <v>2240.5552240000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.622376</v>
+        <v>0.62237600000000004</v>
       </c>
       <c r="AG17" s="1">
-        <v>1360.130000</v>
+        <v>1360.13</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.881000</v>
+        <v>-178.881</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>2250.769834</v>
+        <v>2250.7698340000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.625214</v>
+        <v>0.62521400000000005</v>
       </c>
       <c r="AL17" s="1">
-        <v>1380.630000</v>
+        <v>1380.63</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.316000</v>
+        <v>-209.316</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>2261.222523</v>
+        <v>2261.2225229999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.628117</v>
+        <v>0.62811700000000004</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1402.000000</v>
+        <v>1402</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.362000</v>
+        <v>-253.36199999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>2271.913789</v>
+        <v>2271.9137890000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>0.631087</v>
+        <v>0.63108699999999995</v>
       </c>
       <c r="AV17" s="1">
-        <v>1426.230000</v>
+        <v>1426.23</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.908000</v>
+        <v>-313.90800000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>2282.919519</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0.634144</v>
+        <v>0.63414400000000004</v>
       </c>
       <c r="BA17" s="1">
-        <v>1445.220000</v>
+        <v>1445.22</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.593000</v>
+        <v>-366.59300000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>2293.939632</v>
+        <v>2293.9396320000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>0.637205</v>
+        <v>0.63720500000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1528.600000</v>
+        <v>1528.6</v>
       </c>
       <c r="BG17" s="1">
-        <v>-618.541000</v>
+        <v>-618.54100000000005</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>2305.168562</v>
+        <v>2305.1685619999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0.640325</v>
+        <v>0.64032500000000003</v>
       </c>
       <c r="BK17" s="1">
-        <v>1679.680000</v>
+        <v>1679.68</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1073.240000</v>
+        <v>-1073.24</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>2315.925299</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.643313</v>
+        <v>0.64331300000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1970.470000</v>
+        <v>1970.47</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1866.070000</v>
+        <v>-1866.07</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>2326.517403</v>
+        <v>2326.5174029999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>0.646255</v>
+        <v>0.64625500000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>2357.210000</v>
+        <v>2357.21</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2784.140000</v>
+        <v>-2784.14</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>2337.702150</v>
+        <v>2337.7021500000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>0.649362</v>
+        <v>0.64936199999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2841.110000</v>
+        <v>2841.11</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3795.470000</v>
+        <v>-3795.47</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>2349.850664</v>
+        <v>2349.8506640000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>0.652736</v>
+        <v>0.65273599999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>4263.900000</v>
+        <v>4263.8999999999996</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6252.970000</v>
+        <v>-6252.97</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>2178.538937</v>
+        <v>2178.5389369999998</v>
       </c>
       <c r="B18" s="1">
-        <v>0.605150</v>
+        <v>0.60514999999999997</v>
       </c>
       <c r="C18" s="1">
-        <v>1244.450000</v>
+        <v>1244.45</v>
       </c>
       <c r="D18" s="1">
-        <v>-305.305000</v>
+        <v>-305.30500000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>2188.971291</v>
+        <v>2188.9712909999998</v>
       </c>
       <c r="G18" s="1">
-        <v>0.608048</v>
+        <v>0.60804800000000003</v>
       </c>
       <c r="H18" s="1">
-        <v>1270.080000</v>
+        <v>1270.08</v>
       </c>
       <c r="I18" s="1">
-        <v>-263.466000</v>
+        <v>-263.46600000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>2199.516734</v>
+        <v>2199.5167339999998</v>
       </c>
       <c r="L18" s="1">
-        <v>0.610977</v>
+        <v>0.61097699999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.620000</v>
+        <v>1305.6199999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-202.149000</v>
+        <v>-202.149</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>2210.063695</v>
+        <v>2210.0636949999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.613907</v>
+        <v>0.61390699999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>1317.080000</v>
+        <v>1317.08</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.168000</v>
+        <v>-184.16800000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>2220.204152</v>
+        <v>2220.2041519999998</v>
       </c>
       <c r="V18" s="1">
-        <v>0.616723</v>
+        <v>0.61672300000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>1330.070000</v>
+        <v>1330.07</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.746000</v>
+        <v>-170.74600000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>2230.706163</v>
+        <v>2230.7061629999998</v>
       </c>
       <c r="AA18" s="1">
         <v>0.619641</v>
       </c>
       <c r="AB18" s="1">
-        <v>1347.180000</v>
+        <v>1347.18</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.051000</v>
+        <v>-169.05099999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>2240.897992</v>
+        <v>2240.8979920000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.622472</v>
+        <v>0.62247200000000003</v>
       </c>
       <c r="AG18" s="1">
-        <v>1360.150000</v>
+        <v>1360.15</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.852000</v>
+        <v>-178.852</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>2251.118522</v>
+        <v>2251.1185220000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>0.625311</v>
+        <v>0.62531099999999995</v>
       </c>
       <c r="AL18" s="1">
-        <v>1380.660000</v>
+        <v>1380.66</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.268000</v>
+        <v>-209.268</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>2261.586091</v>
+        <v>2261.5860910000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.628218</v>
+        <v>0.62821800000000005</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1402.070000</v>
+        <v>1402.07</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.285000</v>
+        <v>-253.285</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>2272.646876</v>
+        <v>2272.6468759999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>0.631291</v>
+        <v>0.63129100000000005</v>
       </c>
       <c r="AV18" s="1">
-        <v>1426.210000</v>
+        <v>1426.21</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.891000</v>
+        <v>-313.89100000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>2283.296478</v>
+        <v>2283.2964780000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0.634249</v>
+        <v>0.63424899999999995</v>
       </c>
       <c r="BA18" s="1">
-        <v>1445.240000</v>
+        <v>1445.24</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.595000</v>
+        <v>-366.59500000000003</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>2294.317584</v>
+        <v>2294.3175839999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>0.637310</v>
+        <v>0.63731000000000004</v>
       </c>
       <c r="BF18" s="1">
-        <v>1528.600000</v>
+        <v>1528.6</v>
       </c>
       <c r="BG18" s="1">
-        <v>-618.598000</v>
+        <v>-618.59799999999996</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>2305.545026</v>
+        <v>2305.5450259999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0.640429</v>
+        <v>0.64042900000000003</v>
       </c>
       <c r="BK18" s="1">
-        <v>1679.760000</v>
+        <v>1679.76</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1073.250000</v>
+        <v>-1073.25</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>2316.631603</v>
+        <v>2316.6316029999998</v>
       </c>
       <c r="BO18" s="1">
         <v>0.643509</v>
       </c>
       <c r="BP18" s="1">
-        <v>1970.550000</v>
+        <v>1970.55</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1866.040000</v>
+        <v>-1866.04</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>2327.257396</v>
       </c>
       <c r="BT18" s="1">
-        <v>0.646460</v>
+        <v>0.64646000000000003</v>
       </c>
       <c r="BU18" s="1">
-        <v>2357.550000</v>
+        <v>2357.5500000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2784.630000</v>
+        <v>-2784.63</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>2337.846518</v>
+        <v>2337.8465179999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>0.649402</v>
+        <v>0.64940200000000003</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2840.810000</v>
+        <v>2840.81</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3795.590000</v>
+        <v>-3795.59</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>2350.366999</v>
+        <v>2350.3669989999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>0.652880</v>
+        <v>0.65288000000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>4279.480000</v>
+        <v>4279.4799999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6262.000000</v>
+        <v>-6262</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>2178.881674</v>
+        <v>2178.8816740000002</v>
       </c>
       <c r="B19" s="1">
-        <v>0.605245</v>
+        <v>0.60524500000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-304.959000</v>
+        <v>-304.959</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>2189.388427</v>
+        <v>2189.3884269999999</v>
       </c>
       <c r="G19" s="1">
-        <v>0.608163</v>
+        <v>0.60816300000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1269.620000</v>
+        <v>1269.6199999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-263.875000</v>
+        <v>-263.875</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>2199.810861</v>
+        <v>2199.8108609999999</v>
       </c>
       <c r="L19" s="1">
-        <v>0.611059</v>
+        <v>0.61105900000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.290000</v>
+        <v>1305.29</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.018000</v>
+        <v>-202.018</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>2210.350847</v>
+        <v>2210.3508470000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.613986</v>
+        <v>0.61398600000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>1317.050000</v>
+        <v>1317.05</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.164000</v>
+        <v>-184.16399999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>2220.547601</v>
+        <v>2220.5476010000002</v>
       </c>
       <c r="V19" s="1">
-        <v>0.616819</v>
+        <v>0.61681900000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1330.140000</v>
+        <v>1330.14</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.846000</v>
+        <v>-170.846</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>2231.054851</v>
+        <v>2231.0548509999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.619737</v>
+        <v>0.61973699999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>1347.400000</v>
+        <v>1347.4</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.986000</v>
+        <v>-168.98599999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>2241.240726</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.622567</v>
+        <v>0.62256699999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>1360.120000</v>
+        <v>1360.12</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.883000</v>
+        <v>-178.88300000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>2251.814905</v>
+        <v>2251.8149050000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.625504</v>
+        <v>0.62550399999999995</v>
       </c>
       <c r="AL19" s="1">
-        <v>1380.630000</v>
+        <v>1380.63</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.297000</v>
+        <v>-209.297</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>2262.302842</v>
+        <v>2262.3028420000001</v>
       </c>
       <c r="AP19" s="1">
         <v>0.628417</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1402.070000</v>
+        <v>1402.07</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.311000</v>
+        <v>-253.31100000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>2273.027804</v>
+        <v>2273.0278039999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.631397</v>
+        <v>0.63139699999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1426.220000</v>
+        <v>1426.22</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.894000</v>
+        <v>-313.89400000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>2283.673934</v>
+        <v>2283.6739339999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.634354</v>
+        <v>0.63435399999999997</v>
       </c>
       <c r="BA19" s="1">
-        <v>1445.190000</v>
+        <v>1445.19</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.571000</v>
+        <v>-366.57100000000003</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>2294.708468</v>
+        <v>2294.7084679999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.637419</v>
+        <v>0.63741899999999996</v>
       </c>
       <c r="BF19" s="1">
-        <v>1528.530000</v>
+        <v>1528.53</v>
       </c>
       <c r="BG19" s="1">
-        <v>-618.568000</v>
+        <v>-618.56799999999998</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>2306.225536</v>
+        <v>2306.2255359999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.640618</v>
+        <v>0.64061800000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1679.740000</v>
+        <v>1679.74</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1073.240000</v>
+        <v>-1073.24</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>2316.758119</v>
+        <v>2316.7581190000001</v>
       </c>
       <c r="BO19" s="1">
         <v>0.643544</v>
       </c>
       <c r="BP19" s="1">
-        <v>1970.430000</v>
+        <v>1970.43</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1866.090000</v>
+        <v>-1866.09</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>2327.377924</v>
+        <v>2327.3779239999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>0.646494</v>
+        <v>0.64649400000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2357.890000</v>
+        <v>2357.89</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2784.540000</v>
+        <v>-2784.54</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>2338.267094</v>
+        <v>2338.2670939999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>0.649519</v>
+        <v>0.64951899999999996</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2840.370000</v>
+        <v>2840.37</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3795.370000</v>
+        <v>-3795.37</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>2351.187382</v>
+        <v>2351.1873820000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>0.653108</v>
+        <v>0.65310800000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>4284.900000</v>
+        <v>4284.8999999999996</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6241.160000</v>
+        <v>-6241.16</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>2179.330056</v>
+        <v>2179.3300559999998</v>
       </c>
       <c r="B20" s="1">
-        <v>0.605369</v>
+        <v>0.60536900000000005</v>
       </c>
       <c r="C20" s="1">
-        <v>1244.410000</v>
+        <v>1244.4100000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-305.319000</v>
+        <v>-305.31900000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>2189.668666</v>
       </c>
       <c r="G20" s="1">
-        <v>0.608241</v>
+        <v>0.60824100000000003</v>
       </c>
       <c r="H20" s="1">
-        <v>1270.000000</v>
+        <v>1270</v>
       </c>
       <c r="I20" s="1">
-        <v>-263.628000</v>
+        <v>-263.62799999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>2200.155099</v>
+        <v>2200.1550990000001</v>
       </c>
       <c r="L20" s="1">
-        <v>0.611154</v>
+        <v>0.61115399999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.260000</v>
+        <v>1305.26</v>
       </c>
       <c r="N20" s="1">
-        <v>-201.967000</v>
+        <v>-201.96700000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>2210.699534</v>
+        <v>2210.6995339999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.614083</v>
+        <v>0.61408300000000005</v>
       </c>
       <c r="R20" s="1">
-        <v>1317.040000</v>
+        <v>1317.04</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.184000</v>
+        <v>-184.184</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>2220.894337</v>
+        <v>2220.8943370000002</v>
       </c>
       <c r="V20" s="1">
-        <v>0.616915</v>
+        <v>0.61691499999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1330.020000</v>
+        <v>1330.02</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.872000</v>
+        <v>-170.87200000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>2231.750770</v>
+        <v>2231.7507700000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.619931</v>
+        <v>0.61993100000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1347.360000</v>
+        <v>1347.36</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.937000</v>
+        <v>-168.93700000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>2241.929173</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.622758</v>
+        <v>0.62275800000000003</v>
       </c>
       <c r="AG20" s="1">
-        <v>1360.090000</v>
+        <v>1360.09</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.905000</v>
+        <v>-178.905</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>2252.162637</v>
+        <v>2252.1626369999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.625601</v>
+        <v>0.62560099999999996</v>
       </c>
       <c r="AL20" s="1">
-        <v>1380.680000</v>
+        <v>1380.68</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.285000</v>
+        <v>-209.285</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>2262.658974</v>
+        <v>2262.6589739999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.628516</v>
+        <v>0.62851599999999996</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1402.070000</v>
+        <v>1402.07</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.328000</v>
+        <v>-253.328</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>2273.390908</v>
+        <v>2273.3909079999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>0.631497</v>
+        <v>0.63149699999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1426.220000</v>
+        <v>1426.22</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.892000</v>
+        <v>-313.892</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>2284.331133</v>
+        <v>2284.3311330000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0.634536</v>
+        <v>0.63453599999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1445.210000</v>
+        <v>1445.21</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.564000</v>
+        <v>-366.56400000000002</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>2295.407295</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.637613</v>
+        <v>0.63761299999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1528.610000</v>
+        <v>1528.61</v>
       </c>
       <c r="BG20" s="1">
-        <v>-618.544000</v>
+        <v>-618.54399999999998</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>2306.671937</v>
+        <v>2306.6719370000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>0.640742</v>
+        <v>0.64074200000000003</v>
       </c>
       <c r="BK20" s="1">
-        <v>1679.710000</v>
+        <v>1679.71</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1073.220000</v>
+        <v>-1073.22</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>2317.168802</v>
+        <v>2317.1688020000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.643658</v>
+        <v>0.64365799999999995</v>
       </c>
       <c r="BP20" s="1">
-        <v>1970.390000</v>
+        <v>1970.39</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1866.080000</v>
+        <v>-1866.08</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>2327.788613</v>
+        <v>2327.7886130000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>0.646608</v>
+        <v>0.64660799999999996</v>
       </c>
       <c r="BU20" s="1">
-        <v>2358.370000</v>
+        <v>2358.37</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2784.930000</v>
+        <v>-2784.93</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>2338.689189</v>
+        <v>2338.6891890000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>0.649636</v>
+        <v>0.64963599999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2840.190000</v>
+        <v>2840.19</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3795.520000</v>
+        <v>-3795.52</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>2351.830692</v>
       </c>
       <c r="CD20" s="1">
-        <v>0.653286</v>
+        <v>0.65328600000000003</v>
       </c>
       <c r="CE20" s="1">
-        <v>4263.360000</v>
+        <v>4263.3599999999997</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6247.380000</v>
+        <v>-6247.38</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>2179.586985</v>
+        <v>2179.5869849999999</v>
       </c>
       <c r="B21" s="1">
-        <v>0.605441</v>
+        <v>0.60544100000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1244.050000</v>
+        <v>1244.05</v>
       </c>
       <c r="D21" s="1">
-        <v>-304.997000</v>
+        <v>-304.99700000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>2190.016858</v>
       </c>
       <c r="G21" s="1">
-        <v>0.608338</v>
+        <v>0.60833800000000005</v>
       </c>
       <c r="H21" s="1">
-        <v>1269.690000</v>
+        <v>1269.69</v>
       </c>
       <c r="I21" s="1">
-        <v>-263.571000</v>
+        <v>-263.57100000000003</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>2200.501788</v>
       </c>
       <c r="L21" s="1">
-        <v>0.611250</v>
+        <v>0.61124999999999996</v>
       </c>
       <c r="M21" s="1">
-        <v>1305.240000</v>
+        <v>1305.24</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.219000</v>
+        <v>-202.21899999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>2211.047262</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.614180</v>
+        <v>0.61417999999999995</v>
       </c>
       <c r="R21" s="1">
-        <v>1316.970000</v>
+        <v>1316.97</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.007000</v>
+        <v>-184.00700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>2221.579777</v>
+        <v>2221.5797769999999</v>
       </c>
       <c r="V21" s="1">
-        <v>0.617105</v>
+        <v>0.61710500000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1330.180000</v>
+        <v>1330.18</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.913000</v>
+        <v>-170.91300000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>2232.101410</v>
+        <v>2232.1014100000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.620028</v>
+        <v>0.62002800000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>1347.440000</v>
+        <v>1347.44</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.969000</v>
+        <v>-168.96899999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>2242.273365</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.622854</v>
+        <v>0.62285400000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>1360.100000</v>
+        <v>1360.1</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.948000</v>
+        <v>-178.94800000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>2252.514263</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.625698</v>
+        <v>0.62569799999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>1380.650000</v>
+        <v>1380.65</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.326000</v>
+        <v>-209.32599999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>2263.329528</v>
+        <v>2263.3295280000002</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.628703</v>
+        <v>0.62870300000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1402.090000</v>
+        <v>1402.09</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.309000</v>
+        <v>-253.309</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>2274.055515</v>
       </c>
       <c r="AU21" s="1">
-        <v>0.631682</v>
+        <v>0.63168199999999997</v>
       </c>
       <c r="AV21" s="1">
-        <v>1426.210000</v>
+        <v>1426.21</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.914000</v>
+        <v>-313.91399999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>2284.758225</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0.634655</v>
+        <v>0.63465499999999997</v>
       </c>
       <c r="BA21" s="1">
-        <v>1445.180000</v>
+        <v>1445.18</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.544000</v>
+        <v>-366.54399999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>2295.806079</v>
       </c>
       <c r="BE21" s="1">
-        <v>0.637724</v>
+        <v>0.63772399999999996</v>
       </c>
       <c r="BF21" s="1">
-        <v>1528.560000</v>
+        <v>1528.56</v>
       </c>
       <c r="BG21" s="1">
-        <v>-618.537000</v>
+        <v>-618.53700000000003</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>2307.047903</v>
+        <v>2307.0479030000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>0.640847</v>
+        <v>0.64084700000000006</v>
       </c>
       <c r="BK21" s="1">
-        <v>1679.710000</v>
+        <v>1679.71</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1073.230000</v>
+        <v>-1073.23</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>2317.566561</v>
+        <v>2317.5665610000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>0.643768</v>
+        <v>0.64376800000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1970.360000</v>
+        <v>1970.36</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1865.900000</v>
+        <v>-1865.9</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>2328.219141</v>
       </c>
       <c r="BT21" s="1">
-        <v>0.646728</v>
+        <v>0.64672799999999997</v>
       </c>
       <c r="BU21" s="1">
-        <v>2358.210000</v>
+        <v>2358.21</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2785.720000</v>
+        <v>-2785.72</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>2339.146005</v>
+        <v>2339.1460050000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>0.649763</v>
+        <v>0.64976299999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2840.260000</v>
+        <v>2840.26</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3796.170000</v>
+        <v>-3796.17</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>2352.371331</v>
+        <v>2352.3713309999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>0.653436</v>
+        <v>0.65343600000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>4284.960000</v>
+        <v>4284.96</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6256.390000</v>
+        <v>-6256.39</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>2179.921319</v>
       </c>
       <c r="B22" s="1">
-        <v>0.605534</v>
+        <v>0.60553400000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>1244.130000</v>
+        <v>1244.1300000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-305.263000</v>
+        <v>-305.26299999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>2190.363065</v>
       </c>
       <c r="G22" s="1">
-        <v>0.608434</v>
+        <v>0.60843400000000003</v>
       </c>
       <c r="H22" s="1">
-        <v>1269.380000</v>
+        <v>1269.3800000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-263.666000</v>
+        <v>-263.666</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>2201.193734</v>
+        <v>2201.1937339999999</v>
       </c>
       <c r="L22" s="1">
-        <v>0.611443</v>
+        <v>0.61144299999999996</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.510000</v>
+        <v>1305.51</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.054000</v>
+        <v>-202.054</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>2211.744110</v>
+        <v>2211.7441100000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.614373</v>
+        <v>0.61437299999999995</v>
       </c>
       <c r="R22" s="1">
-        <v>1317.050000</v>
+        <v>1317.05</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.067000</v>
+        <v>-184.06700000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>2221.923503</v>
@@ -5681,178 +6097,178 @@
         <v>0.617201</v>
       </c>
       <c r="W22" s="1">
-        <v>1330.070000</v>
+        <v>1330.07</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.787000</v>
+        <v>-170.78700000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>2232.446657</v>
       </c>
       <c r="AA22" s="1">
-        <v>0.620124</v>
+        <v>0.62012400000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1347.410000</v>
+        <v>1347.41</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.971000</v>
+        <v>-168.971</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>2242.616133</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.622949</v>
+        <v>0.62294899999999997</v>
       </c>
       <c r="AG22" s="1">
-        <v>1360.010000</v>
+        <v>1360.01</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.886000</v>
+        <v>-178.886</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>2253.173446</v>
+        <v>2253.1734459999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>0.625882</v>
+        <v>0.62588200000000005</v>
       </c>
       <c r="AL22" s="1">
-        <v>1380.650000</v>
+        <v>1380.65</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.308000</v>
+        <v>-209.30799999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>2263.775432</v>
+        <v>2263.7754319999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.628827</v>
+        <v>0.62882700000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1402.060000</v>
+        <v>1402.06</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.315000</v>
+        <v>-253.315</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>2274.519770</v>
+        <v>2274.5197699999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>0.631811</v>
+        <v>0.63181100000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1426.220000</v>
+        <v>1426.22</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.877000</v>
+        <v>-313.87700000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>2285.131676</v>
       </c>
       <c r="AZ22" s="1">
-        <v>0.634759</v>
+        <v>0.63475899999999996</v>
       </c>
       <c r="BA22" s="1">
-        <v>1445.220000</v>
+        <v>1445.22</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.524000</v>
+        <v>-366.524</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>2296.149309</v>
+        <v>2296.1493089999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.637819</v>
+        <v>0.63781900000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1528.560000</v>
+        <v>1528.56</v>
       </c>
       <c r="BG22" s="1">
-        <v>-618.573000</v>
+        <v>-618.57299999999998</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>2307.422414</v>
+        <v>2307.4224140000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>0.640951</v>
+        <v>0.64095100000000005</v>
       </c>
       <c r="BK22" s="1">
-        <v>1679.790000</v>
+        <v>1679.79</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1073.200000</v>
+        <v>-1073.2</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>2317.989648</v>
+        <v>2317.9896480000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>0.643886</v>
+        <v>0.64388599999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1970.290000</v>
+        <v>1970.29</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1866.120000</v>
+        <v>-1866.12</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>2328.679431</v>
       </c>
       <c r="BT22" s="1">
-        <v>0.646855</v>
+        <v>0.64685499999999996</v>
       </c>
       <c r="BU22" s="1">
-        <v>2358.650000</v>
+        <v>2358.65</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2785.860000</v>
+        <v>-2785.86</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>2339.563172</v>
+        <v>2339.5631720000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>0.649879</v>
+        <v>0.64987899999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2840.790000</v>
+        <v>2840.79</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3795.590000</v>
+        <v>-3795.59</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>2352.910484</v>
@@ -5861,377 +6277,377 @@
         <v>0.653586</v>
       </c>
       <c r="CE22" s="1">
-        <v>4270.520000</v>
+        <v>4270.5200000000004</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6236.520000</v>
+        <v>-6236.52</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>2180.602790</v>
+        <v>2180.6027899999999</v>
       </c>
       <c r="B23" s="1">
-        <v>0.605723</v>
+        <v>0.60572300000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1244.530000</v>
+        <v>1244.53</v>
       </c>
       <c r="D23" s="1">
-        <v>-304.934000</v>
+        <v>-304.93400000000003</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>2191.054488</v>
+        <v>2191.0544880000002</v>
       </c>
       <c r="G23" s="1">
         <v>0.608626</v>
       </c>
       <c r="H23" s="1">
-        <v>1269.600000</v>
+        <v>1269.5999999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-263.103000</v>
+        <v>-263.10300000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>2201.539281</v>
+        <v>2201.5392809999998</v>
       </c>
       <c r="L23" s="1">
-        <v>0.611539</v>
+        <v>0.61153900000000005</v>
       </c>
       <c r="M23" s="1">
-        <v>1305.450000</v>
+        <v>1305.45</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.938000</v>
+        <v>-201.93799999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>2212.095277</v>
+        <v>2212.0952769999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.614471</v>
+        <v>0.61447099999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1317.150000</v>
+        <v>1317.15</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.081000</v>
+        <v>-184.08099999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>2222.267231</v>
+        <v>2222.2672309999998</v>
       </c>
       <c r="V23" s="1">
-        <v>0.617296</v>
+        <v>0.61729599999999996</v>
       </c>
       <c r="W23" s="1">
-        <v>1330.150000</v>
+        <v>1330.15</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.823000</v>
+        <v>-170.82300000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>2233.096386</v>
+        <v>2233.0963860000002</v>
       </c>
       <c r="AA23" s="1">
         <v>0.620305</v>
       </c>
       <c r="AB23" s="1">
-        <v>1347.370000</v>
+        <v>1347.37</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.785000</v>
+        <v>-168.785</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>2243.261891</v>
+        <v>2243.2618910000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.623128</v>
+        <v>0.62312800000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1360.020000</v>
+        <v>1360.02</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.950000</v>
+        <v>-178.95</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>2253.559858</v>
+        <v>2253.5598580000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>0.625989</v>
+        <v>0.62598900000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>1380.640000</v>
+        <v>1380.64</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.284000</v>
+        <v>-209.28399999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>2264.134535</v>
+        <v>2264.1345350000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.628926</v>
+        <v>0.62892599999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1402.060000</v>
+        <v>1402.06</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.305000</v>
+        <v>-253.30500000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>2274.884329</v>
       </c>
       <c r="AU23" s="1">
-        <v>0.631912</v>
+        <v>0.63191200000000003</v>
       </c>
       <c r="AV23" s="1">
-        <v>1426.200000</v>
+        <v>1426.2</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.908000</v>
+        <v>-313.90800000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>2285.513101</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0.634865</v>
+        <v>0.63486500000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1445.160000</v>
+        <v>1445.16</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.545000</v>
+        <v>-366.54500000000002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>2296.564990</v>
+        <v>2296.5649899999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>0.637935</v>
+        <v>0.63793500000000003</v>
       </c>
       <c r="BF23" s="1">
-        <v>1528.570000</v>
+        <v>1528.57</v>
       </c>
       <c r="BG23" s="1">
-        <v>-618.554000</v>
+        <v>-618.55399999999997</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>2307.840509</v>
+        <v>2307.8405090000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0.641067</v>
+        <v>0.64106700000000005</v>
       </c>
       <c r="BK23" s="1">
-        <v>1679.680000</v>
+        <v>1679.68</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1073.210000</v>
+        <v>-1073.21</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>2318.382480</v>
+        <v>2318.3824800000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>0.643995</v>
+        <v>0.64399499999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1970.450000</v>
+        <v>1970.45</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1865.890000</v>
+        <v>-1865.89</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>2329.063362</v>
+        <v>2329.0633619999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.646962</v>
+        <v>0.64696200000000004</v>
       </c>
       <c r="BU23" s="1">
-        <v>2358.850000</v>
+        <v>2358.85</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2786.320000</v>
+        <v>-2786.32</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>2340.009045</v>
+        <v>2340.0090449999998</v>
       </c>
       <c r="BY23" s="1">
         <v>0.650003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2840.560000</v>
+        <v>2840.56</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3794.960000</v>
+        <v>-3794.96</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>2353.449169</v>
       </c>
       <c r="CD23" s="1">
-        <v>0.653736</v>
+        <v>0.65373599999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>4271.900000</v>
+        <v>4271.8999999999996</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6255.890000</v>
+        <v>-6255.89</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>2180.944535</v>
+        <v>2180.9445350000001</v>
       </c>
       <c r="B24" s="1">
-        <v>0.605818</v>
+        <v>0.60581799999999997</v>
       </c>
       <c r="C24" s="1">
-        <v>1244.400000</v>
+        <v>1244.4000000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-304.903000</v>
+        <v>-304.90300000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>2191.399208</v>
+        <v>2191.3992079999998</v>
       </c>
       <c r="G24" s="1">
-        <v>0.608722</v>
+        <v>0.60872199999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1270.110000</v>
+        <v>1270.1099999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-263.592000</v>
+        <v>-263.59199999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>2201.889161</v>
+        <v>2201.8891610000001</v>
       </c>
       <c r="L24" s="1">
-        <v>0.611636</v>
+        <v>0.61163599999999996</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.300000</v>
+        <v>1305.3</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.954000</v>
+        <v>-201.95400000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>2212.440988</v>
+        <v>2212.4409879999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.614567</v>
+        <v>0.61456699999999997</v>
       </c>
       <c r="R24" s="1">
-        <v>1317.140000</v>
+        <v>1317.14</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.159000</v>
+        <v>-184.15899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>2222.919007</v>
       </c>
       <c r="V24" s="1">
-        <v>0.617478</v>
+        <v>0.61747799999999997</v>
       </c>
       <c r="W24" s="1">
-        <v>1330.210000</v>
+        <v>1330.21</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.909000</v>
+        <v>-170.90899999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>2233.492193</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.620414</v>
+        <v>0.62041400000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>1347.220000</v>
+        <v>1347.22</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.047000</v>
+        <v>-169.047</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>2243.645795</v>
+        <v>2243.6457949999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.623235</v>
+        <v>0.62323499999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1360.020000</v>
+        <v>1360.02</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.160000</v>
+        <v>-179.16</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>2253.907029</v>
@@ -6240,118 +6656,118 @@
         <v>0.626085</v>
       </c>
       <c r="AL24" s="1">
-        <v>1380.610000</v>
+        <v>1380.61</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.295000</v>
+        <v>-209.29499999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>2264.498600</v>
+        <v>2264.4985999999999</v>
       </c>
       <c r="AP24" s="1">
         <v>0.629027</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1402.070000</v>
+        <v>1402.07</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.337000</v>
+        <v>-253.33699999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>2275.249156</v>
+        <v>2275.2491559999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>0.632014</v>
+        <v>0.63201399999999996</v>
       </c>
       <c r="AV24" s="1">
-        <v>1426.200000</v>
+        <v>1426.2</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.865000</v>
+        <v>-313.86500000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>2285.930266</v>
+        <v>2285.9302659999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0.634981</v>
+        <v>0.63498100000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1445.200000</v>
+        <v>1445.2</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.576000</v>
+        <v>-366.57600000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>2296.876445</v>
+        <v>2296.8764449999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.638021</v>
+        <v>0.63802099999999995</v>
       </c>
       <c r="BF24" s="1">
-        <v>1528.560000</v>
+        <v>1528.56</v>
       </c>
       <c r="BG24" s="1">
-        <v>-618.549000</v>
+        <v>-618.54899999999998</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>2308.192696</v>
+        <v>2308.1926960000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>0.641165</v>
+        <v>0.64116499999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1679.760000</v>
+        <v>1679.76</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1073.180000</v>
+        <v>-1073.18</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>2318.803089</v>
       </c>
       <c r="BO24" s="1">
-        <v>0.644112</v>
+        <v>0.64411200000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1970.540000</v>
+        <v>1970.54</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1865.830000</v>
+        <v>-1865.83</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>2329.492865</v>
+        <v>2329.4928650000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>0.647081</v>
+        <v>0.64708100000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>2357.940000</v>
+        <v>2357.94</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2786.950000</v>
+        <v>-2786.95</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>2340.430147</v>
@@ -6360,544 +6776,545 @@
         <v>0.650119</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2840.190000</v>
+        <v>2840.19</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3795.550000</v>
+        <v>-3795.55</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>2353.990800</v>
+        <v>2353.9908</v>
       </c>
       <c r="CD24" s="1">
-        <v>0.653886</v>
+        <v>0.65388599999999997</v>
       </c>
       <c r="CE24" s="1">
-        <v>4286.120000</v>
+        <v>4286.12</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6244.860000</v>
+        <v>-6244.86</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>2181.289749</v>
       </c>
       <c r="B25" s="1">
-        <v>0.605914</v>
+        <v>0.60591399999999995</v>
       </c>
       <c r="C25" s="1">
-        <v>1244.530000</v>
+        <v>1244.53</v>
       </c>
       <c r="D25" s="1">
-        <v>-305.130000</v>
+        <v>-305.13</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>2191.743959</v>
+        <v>2191.7439589999999</v>
       </c>
       <c r="G25" s="1">
-        <v>0.608818</v>
+        <v>0.60881799999999997</v>
       </c>
       <c r="H25" s="1">
-        <v>1269.510000</v>
+        <v>1269.51</v>
       </c>
       <c r="I25" s="1">
-        <v>-263.678000</v>
+        <v>-263.678</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>2202.524971</v>
+        <v>2202.5249709999998</v>
       </c>
       <c r="L25" s="1">
-        <v>0.611812</v>
+        <v>0.61181200000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1305.000000</v>
+        <v>1305</v>
       </c>
       <c r="N25" s="1">
-        <v>-202.056000</v>
+        <v>-202.05600000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>2213.098685</v>
+        <v>2213.0986849999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.614750</v>
+        <v>0.61475000000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1317.010000</v>
+        <v>1317.01</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.100000</v>
+        <v>-184.1</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>2223.296927</v>
+        <v>2223.2969269999999</v>
       </c>
       <c r="V25" s="1">
-        <v>0.617582</v>
+        <v>0.61758199999999996</v>
       </c>
       <c r="W25" s="1">
-        <v>1330.140000</v>
+        <v>1330.14</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.846000</v>
+        <v>-170.846</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>2233.842895</v>
+        <v>2233.8428950000002</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.620512</v>
+        <v>0.62051199999999995</v>
       </c>
       <c r="AB25" s="1">
-        <v>1347.210000</v>
+        <v>1347.21</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.982000</v>
+        <v>-168.982</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>2243.991011</v>
+        <v>2243.9910110000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.623331</v>
+        <v>0.62333099999999997</v>
       </c>
       <c r="AG25" s="1">
-        <v>1360.100000</v>
+        <v>1360.1</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.164000</v>
+        <v>-179.16399999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>2254.256245</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.626182</v>
+        <v>0.62618200000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1380.640000</v>
+        <v>1380.64</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.325000</v>
+        <v>-209.32499999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>2264.922678</v>
+        <v>2264.9226779999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.629145</v>
+        <v>0.62914499999999995</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1402.070000</v>
+        <v>1402.07</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.308000</v>
+        <v>-253.30799999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>2275.660073</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.632128</v>
+        <v>0.63212800000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1426.220000</v>
+        <v>1426.22</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.878000</v>
+        <v>-313.87799999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>2286.228364</v>
+        <v>2286.2283640000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0.635063</v>
+        <v>0.63506300000000004</v>
       </c>
       <c r="BA25" s="1">
-        <v>1445.160000</v>
+        <v>1445.16</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.565000</v>
+        <v>-366.565</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>2297.236540</v>
+        <v>2297.2365399999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.638121</v>
+        <v>0.63812100000000005</v>
       </c>
       <c r="BF25" s="1">
-        <v>1528.580000</v>
+        <v>1528.58</v>
       </c>
       <c r="BG25" s="1">
-        <v>-618.551000</v>
+        <v>-618.55100000000004</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>2308.569663</v>
+        <v>2308.5696630000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0.641269</v>
+        <v>0.64126899999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1679.700000</v>
+        <v>1679.7</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1073.140000</v>
+        <v>-1073.1400000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>2319.201871</v>
+        <v>2319.2018710000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>0.644223</v>
+        <v>0.64422299999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1970.480000</v>
+        <v>1970.48</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1865.950000</v>
+        <v>-1865.95</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>2329.907521</v>
+        <v>2329.9075210000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>0.647197</v>
+        <v>0.64719700000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>2358.250000</v>
+        <v>2358.25</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2787.390000</v>
+        <v>-2787.39</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>2340.855250</v>
+        <v>2340.8552500000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>0.650238</v>
+        <v>0.65023799999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2840.450000</v>
+        <v>2840.45</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3795.330000</v>
+        <v>-3795.33</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>2354.531440</v>
+        <v>2354.5314400000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>0.654037</v>
+        <v>0.65403699999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>4262.480000</v>
+        <v>4262.4799999999996</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6244.880000</v>
+        <v>-6244.88</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>2181.937524</v>
+        <v>2181.9375239999999</v>
       </c>
       <c r="B26" s="1">
-        <v>0.606094</v>
+        <v>0.60609400000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1244.470000</v>
+        <v>1244.47</v>
       </c>
       <c r="D26" s="1">
-        <v>-305.075000</v>
+        <v>-305.07499999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>2192.367401</v>
       </c>
       <c r="G26" s="1">
-        <v>0.608991</v>
+        <v>0.60899099999999995</v>
       </c>
       <c r="H26" s="1">
-        <v>1269.380000</v>
+        <v>1269.3800000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-264.191000</v>
+        <v>-264.19099999999997</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>2202.925241</v>
+        <v>2202.9252409999999</v>
       </c>
       <c r="L26" s="1">
-        <v>0.611924</v>
+        <v>0.61192400000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>1305.120000</v>
+        <v>1305.1199999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.048000</v>
+        <v>-202.048</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>2213.488075</v>
+        <v>2213.4880750000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.614858</v>
+        <v>0.61485800000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>1316.940000</v>
+        <v>1316.94</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.148000</v>
+        <v>-184.148</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>2223.639165</v>
       </c>
       <c r="V26" s="1">
-        <v>0.617678</v>
+        <v>0.61767799999999995</v>
       </c>
       <c r="W26" s="1">
-        <v>1330.200000</v>
+        <v>1330.2</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.903000</v>
+        <v>-170.90299999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>2234.191551</v>
+        <v>2234.1915509999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.620609</v>
+        <v>0.62060899999999997</v>
       </c>
       <c r="AB26" s="1">
-        <v>1347.250000</v>
+        <v>1347.25</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.944000</v>
+        <v>-168.94399999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>2244.339730</v>
+        <v>2244.3397300000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.623428</v>
+        <v>0.62342799999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1360.070000</v>
+        <v>1360.07</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.205000</v>
+        <v>-179.20500000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>2254.664954</v>
+        <v>2254.6649539999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.626296</v>
+        <v>0.62629599999999996</v>
       </c>
       <c r="AL26" s="1">
-        <v>1380.630000</v>
+        <v>1380.63</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.300000</v>
+        <v>-209.3</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>2265.219782</v>
+        <v>2265.2197820000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.629228</v>
+        <v>0.62922800000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1402.060000</v>
+        <v>1402.06</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.313000</v>
+        <v>-253.31299999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>2275.977512</v>
+        <v>2275.9775119999999</v>
       </c>
       <c r="AU26" s="1">
         <v>0.632216</v>
       </c>
       <c r="AV26" s="1">
-        <v>1426.240000</v>
+        <v>1426.24</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.909000</v>
+        <v>-313.90899999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>2286.587466</v>
+        <v>2286.5874659999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0.635163</v>
+        <v>0.63516300000000003</v>
       </c>
       <c r="BA26" s="1">
-        <v>1445.180000</v>
+        <v>1445.18</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.536000</v>
+        <v>-366.536</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>2297.593661</v>
+        <v>2297.5936609999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.638220</v>
+        <v>0.63822000000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1528.630000</v>
+        <v>1528.63</v>
       </c>
       <c r="BG26" s="1">
-        <v>-618.547000</v>
+        <v>-618.54700000000003</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>2308.945100</v>
+        <v>2308.9450999999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>0.641374</v>
       </c>
       <c r="BK26" s="1">
-        <v>1679.730000</v>
+        <v>1679.73</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1073.150000</v>
+        <v>-1073.1500000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>2319.623471</v>
+        <v>2319.6234709999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>0.644340</v>
+        <v>0.64434000000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1970.350000</v>
+        <v>1970.35</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1865.840000</v>
+        <v>-1865.84</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>2330.322672</v>
+        <v>2330.3226719999998</v>
       </c>
       <c r="BT26" s="1">
         <v>0.647312</v>
       </c>
       <c r="BU26" s="1">
-        <v>2357.890000</v>
+        <v>2357.89</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2787.600000</v>
+        <v>-2787.6</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>2341.303137</v>
+        <v>2341.3031369999999</v>
       </c>
       <c r="BY26" s="1">
         <v>0.650362</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2840.180000</v>
+        <v>2840.18</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3796.080000</v>
+        <v>-3796.08</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>2355.070560</v>
+        <v>2355.0705600000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>0.654186</v>
+        <v>0.65418600000000005</v>
       </c>
       <c r="CE26" s="1">
-        <v>4281.660000</v>
+        <v>4281.66</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6258.080000</v>
+        <v>-6258.08</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>